--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.71839480963704</v>
+        <v>25.71839480963705</v>
       </c>
       <c r="C2">
-        <v>15.31598974789431</v>
+        <v>15.31598974789425</v>
       </c>
       <c r="D2">
-        <v>2.502988093239381</v>
+        <v>2.502988093239246</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.60855464958279</v>
+        <v>27.60855464958289</v>
       </c>
       <c r="G2">
-        <v>20.85401715157148</v>
+        <v>20.85401715157155</v>
       </c>
       <c r="H2">
-        <v>16.5344034658859</v>
+        <v>16.53440346588592</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.23184380038125</v>
+        <v>30.23184380038123</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.94077511686249</v>
+        <v>23.94077511686252</v>
       </c>
       <c r="C3">
-        <v>14.32643982476003</v>
+        <v>14.32643982476007</v>
       </c>
       <c r="D3">
-        <v>2.628966488067765</v>
+        <v>2.628966488067631</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.09806819073715</v>
+        <v>26.09806819073714</v>
       </c>
       <c r="G3">
-        <v>19.87639946286579</v>
+        <v>19.87639946286574</v>
       </c>
       <c r="H3">
-        <v>16.0900002046116</v>
+        <v>16.09000020461149</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.93311944336502</v>
+        <v>27.93311944336505</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79276549966727</v>
+        <v>22.79276549966733</v>
       </c>
       <c r="C4">
-        <v>13.68721254185408</v>
+        <v>13.68721254185425</v>
       </c>
       <c r="D4">
-        <v>2.705991604916616</v>
+        <v>2.705991604916211</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.17417652890646</v>
+        <v>25.17417652890647</v>
       </c>
       <c r="G4">
-        <v>19.29034106441478</v>
+        <v>19.29034106441475</v>
       </c>
       <c r="H4">
-        <v>15.84541745973072</v>
+        <v>15.84541745973071</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.46776236828107</v>
+        <v>26.46776236828104</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.31048648530734</v>
+        <v>22.31048648530741</v>
       </c>
       <c r="C5">
-        <v>13.41870903104752</v>
+        <v>13.41870903104747</v>
       </c>
       <c r="D5">
-        <v>2.737362012033079</v>
+        <v>2.737362012032946</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.79884636751918</v>
+        <v>24.79884636751915</v>
       </c>
       <c r="G5">
-        <v>19.05519608981338</v>
+        <v>19.05519608981332</v>
       </c>
       <c r="H5">
-        <v>15.75256176608968</v>
+        <v>15.75256176608957</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.85637032473761</v>
+        <v>25.85637032473767</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.22952478851264</v>
+        <v>22.22952478851265</v>
       </c>
       <c r="C6">
-        <v>13.37363889881232</v>
+        <v>13.37363889881216</v>
       </c>
       <c r="D6">
-        <v>2.742571702447882</v>
+        <v>2.742571702447883</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.73660315965135</v>
+        <v>24.73660315965141</v>
       </c>
       <c r="G6">
-        <v>19.01637652147171</v>
+        <v>19.01637652147176</v>
       </c>
       <c r="H6">
-        <v>15.73754565416665</v>
+        <v>15.7375456541667</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.75396999572773</v>
+        <v>25.75396999572771</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.7863201460717</v>
+        <v>22.78632014607175</v>
       </c>
       <c r="C7">
-        <v>13.68362391859788</v>
+        <v>13.68362391859776</v>
       </c>
       <c r="D7">
-        <v>2.70641467023268</v>
+        <v>2.706414670232747</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.16910955488941</v>
+        <v>25.16910955488939</v>
       </c>
       <c r="G7">
-        <v>19.28715475109096</v>
+        <v>19.28715475109098</v>
       </c>
       <c r="H7">
-        <v>15.84413799201871</v>
+        <v>15.84413799201873</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.4595754606111</v>
+        <v>26.45957546061102</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.11705738705151</v>
+        <v>25.11705738705158</v>
       </c>
       <c r="C8">
-        <v>14.98132021866761</v>
+        <v>14.9813202186676</v>
       </c>
       <c r="D8">
-        <v>2.546533982475276</v>
+        <v>2.546533982475076</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>27.08713021868981</v>
       </c>
       <c r="G8">
-        <v>20.51403647764648</v>
+        <v>20.51403647764645</v>
       </c>
       <c r="H8">
-        <v>16.37512780388252</v>
+        <v>16.37512780388245</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.44999938314328</v>
+        <v>29.44999938314338</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.25096541256094</v>
+        <v>29.25096541256092</v>
       </c>
       <c r="C9">
-        <v>17.27849393117387</v>
+        <v>17.27849393117386</v>
       </c>
       <c r="D9">
-        <v>2.227097563158428</v>
+        <v>2.22709756315836</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.87078655368772</v>
+        <v>30.87078655368769</v>
       </c>
       <c r="G9">
         <v>23.03097462294759</v>
       </c>
       <c r="H9">
-        <v>17.65378732257399</v>
+        <v>17.65378732257401</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.92200145498482</v>
+        <v>34.92200145498484</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.04100102623763</v>
+        <v>32.0410010262375</v>
       </c>
       <c r="C10">
-        <v>18.82126575034928</v>
+        <v>18.82126575034922</v>
       </c>
       <c r="D10">
-        <v>1.983351699493351</v>
+        <v>1.983351699493352</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.85150893014532</v>
+        <v>33.85150893014518</v>
       </c>
       <c r="G10">
-        <v>25.14494336935729</v>
+        <v>25.14494336935715</v>
       </c>
       <c r="H10">
-        <v>18.75657855418267</v>
+        <v>18.75657855418269</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>38.76245311174592</v>
+        <v>38.76245311174581</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.26166256632202</v>
+        <v>33.26166256632195</v>
       </c>
       <c r="C11">
-        <v>19.49329149881546</v>
+        <v>19.49329149881544</v>
       </c>
       <c r="D11">
-        <v>1.868989210424476</v>
+        <v>1.868989210424544</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.2627973077302</v>
+        <v>35.26279730773012</v>
       </c>
       <c r="G11">
-        <v>26.22881611761317</v>
+        <v>26.22881611761311</v>
       </c>
       <c r="H11">
-        <v>19.29846259148736</v>
+        <v>19.29846259148733</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.71742157704667</v>
+        <v>33.71742157704674</v>
       </c>
       <c r="C12">
-        <v>19.74364911614581</v>
+        <v>19.74364911614587</v>
       </c>
       <c r="D12">
-        <v>1.825027150071874</v>
+        <v>1.825027150071869</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.7964401986976</v>
+        <v>35.79644019869772</v>
       </c>
       <c r="G12">
-        <v>26.63894485632451</v>
+        <v>26.63894485632464</v>
       </c>
       <c r="H12">
-        <v>19.55945457623983</v>
+        <v>19.55945457623992</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.13913838795821</v>
+        <v>41.13913838795822</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.61954493684129</v>
+        <v>33.61954493684133</v>
       </c>
       <c r="C13">
-        <v>19.68991073836913</v>
+        <v>19.68991073836914</v>
       </c>
       <c r="D13">
-        <v>1.83452710392022</v>
+        <v>1.834527103920216</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.68153205962823</v>
+        <v>35.68153205962832</v>
       </c>
       <c r="G13">
-        <v>26.55061880524097</v>
+        <v>26.55061880524104</v>
       </c>
       <c r="H13">
-        <v>19.49316292186051</v>
+        <v>19.49316292186057</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>40.99879547212376</v>
+        <v>40.99879547212375</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.29928479701639</v>
+        <v>33.29928479701652</v>
       </c>
       <c r="C14">
-        <v>19.51397022112229</v>
+        <v>19.51397022112222</v>
       </c>
       <c r="D14">
-        <v>1.865386554443975</v>
+        <v>1.865386554444041</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.30671135574656</v>
+        <v>35.30671135574679</v>
       </c>
       <c r="G14">
-        <v>26.26255986804602</v>
+        <v>26.26255986804622</v>
       </c>
       <c r="H14">
-        <v>19.31573129035917</v>
+        <v>19.31573129035926</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.54099667282236</v>
+        <v>40.54099667282243</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.10228882526173</v>
+        <v>33.10228882526174</v>
       </c>
       <c r="C15">
-        <v>19.40566965829885</v>
+        <v>19.40566965829891</v>
       </c>
       <c r="D15">
-        <v>1.88419840020133</v>
+        <v>1.884198400201331</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.07704529175479</v>
+        <v>35.07704529175481</v>
       </c>
       <c r="G15">
-        <v>26.08609553375513</v>
+        <v>26.08609553375515</v>
       </c>
       <c r="H15">
-        <v>19.22568458408924</v>
+        <v>19.22568458408923</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.26045857634632</v>
+        <v>40.26045857634637</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.96029206536212</v>
+        <v>31.96029206536213</v>
       </c>
       <c r="C16">
-        <v>18.77676097590167</v>
+        <v>18.77676097590179</v>
       </c>
       <c r="D16">
-        <v>1.990742915025714</v>
+        <v>1.990742915025583</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>33.7591261392453</v>
       </c>
       <c r="G16">
-        <v>25.07403028641338</v>
+        <v>25.0740302864134</v>
       </c>
       <c r="H16">
-        <v>18.72201338440971</v>
+        <v>18.72201338440968</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.64942448832585</v>
+        <v>38.64942448832581</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.24761221329197</v>
+        <v>31.24761221329198</v>
       </c>
       <c r="C17">
-        <v>18.38342257756783</v>
+        <v>18.38342257756769</v>
       </c>
       <c r="D17">
-        <v>2.055111458795782</v>
+        <v>2.055111458795581</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.94842929777919</v>
+        <v>32.94842929777924</v>
       </c>
       <c r="G17">
-        <v>24.45192417429958</v>
+        <v>24.45192417429964</v>
       </c>
       <c r="H17">
-        <v>18.42364058951028</v>
+        <v>18.42364058951033</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.65658663978698</v>
+        <v>37.65658663978692</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.8330943794088</v>
+        <v>30.83309437940879</v>
       </c>
       <c r="C18">
         <v>18.15436998098777</v>
       </c>
       <c r="D18">
-        <v>2.091817665140332</v>
+        <v>2.091817665140333</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.48112114835146</v>
+        <v>32.48112114835141</v>
       </c>
       <c r="G18">
-        <v>24.09943712415497</v>
+        <v>24.09943712415491</v>
       </c>
       <c r="H18">
-        <v>18.25577606719018</v>
+        <v>18.25577606719014</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.0833227215269</v>
+        <v>37.08332272152686</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.69194124891317</v>
+        <v>30.69194124891313</v>
       </c>
       <c r="C19">
-        <v>18.07632878194755</v>
+        <v>18.0763287819475</v>
       </c>
       <c r="D19">
-        <v>2.104195594335228</v>
+        <v>2.104195594335224</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         <v>32.322706375168</v>
       </c>
       <c r="G19">
-        <v>24.00188087712491</v>
+        <v>24.00188087712494</v>
       </c>
       <c r="H19">
-        <v>18.1995712994482</v>
+        <v>18.19957129944821</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>36.88879775469448</v>
+        <v>36.88879775469452</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.32395125972873</v>
+        <v>31.32395125972874</v>
       </c>
       <c r="C20">
-        <v>18.4255843553298</v>
+        <v>18.42558435532986</v>
       </c>
       <c r="D20">
-        <v>2.04829314400696</v>
+        <v>2.048293144006959</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.03483026361142</v>
+        <v>33.03483026361155</v>
       </c>
       <c r="G20">
-        <v>24.5182103508489</v>
+        <v>24.51821035084901</v>
       </c>
       <c r="H20">
-        <v>18.45501143885057</v>
+        <v>18.4550114388506</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.39352436726094</v>
+        <v>33.39352436726083</v>
       </c>
       <c r="C21">
-        <v>19.56575874755473</v>
+        <v>19.56575874755469</v>
       </c>
       <c r="D21">
-        <v>1.856341556426725</v>
+        <v>1.856341556426862</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.41681989979373</v>
+        <v>35.41681989979368</v>
       </c>
       <c r="G21">
-        <v>26.3471726053615</v>
+        <v>26.34717260536145</v>
       </c>
       <c r="H21">
-        <v>19.35913576355891</v>
+        <v>19.35913576355892</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>40.67548516874292</v>
+        <v>40.67548516874297</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70864684270773</v>
+        <v>34.70864684270772</v>
       </c>
       <c r="C22">
         <v>20.2869830308018</v>
       </c>
       <c r="D22">
-        <v>1.726975003384246</v>
+        <v>1.726975003384245</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.9695185745765</v>
+        <v>36.96951857457658</v>
       </c>
       <c r="G22">
-        <v>27.54110319861542</v>
+        <v>27.54110319861547</v>
       </c>
       <c r="H22">
-        <v>20.23969651436693</v>
+        <v>20.23969651436697</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.57225705870373</v>
+        <v>42.57225705870363</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00997913328963</v>
+        <v>34.00997913328972</v>
       </c>
       <c r="C23">
-        <v>19.90418392398719</v>
+        <v>19.90418392398732</v>
       </c>
       <c r="D23">
         <v>1.796437827774065</v>
@@ -1222,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.14089925699481</v>
+        <v>36.14089925699486</v>
       </c>
       <c r="G23">
-        <v>26.90376566215443</v>
+        <v>26.90376566215447</v>
       </c>
       <c r="H23">
-        <v>19.75854472887876</v>
+        <v>19.75854472887879</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.55985802112908</v>
+        <v>41.55985802112904</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.28945332919271</v>
+        <v>31.2894533291928</v>
       </c>
       <c r="C24">
-        <v>18.40653211352157</v>
+        <v>18.4065321135215</v>
       </c>
       <c r="D24">
-        <v>2.051376627646495</v>
+        <v>2.051376627646559</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.99577226038009</v>
+        <v>32.99577226038019</v>
       </c>
       <c r="G24">
-        <v>24.48824489280222</v>
+        <v>24.48824489280232</v>
       </c>
       <c r="H24">
-        <v>18.44081726914249</v>
+        <v>18.4408172691425</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.71462053355349</v>
+        <v>37.7146205335536</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.17756307317549</v>
+        <v>28.17756307317552</v>
       </c>
       <c r="C25">
-        <v>16.68300104892545</v>
+        <v>16.68300104892548</v>
       </c>
       <c r="D25">
-        <v>2.31465753071413</v>
+        <v>2.314657530713927</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.84509306428564</v>
+        <v>29.84509306428563</v>
       </c>
       <c r="G25">
-        <v>22.33812665512552</v>
+        <v>22.3381266551255</v>
       </c>
       <c r="H25">
-        <v>17.28061155761564</v>
+        <v>17.28061155761562</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.47815699867592</v>
+        <v>33.47815699867603</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.71839480963705</v>
+        <v>25.71839480963704</v>
       </c>
       <c r="C2">
-        <v>15.31598974789425</v>
+        <v>15.31598974789431</v>
       </c>
       <c r="D2">
-        <v>2.502988093239246</v>
+        <v>2.502988093239381</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.60855464958289</v>
+        <v>27.60855464958279</v>
       </c>
       <c r="G2">
-        <v>20.85401715157155</v>
+        <v>20.85401715157148</v>
       </c>
       <c r="H2">
-        <v>16.53440346588592</v>
+        <v>16.5344034658859</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.23184380038123</v>
+        <v>30.23184380038125</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.94077511686252</v>
+        <v>23.94077511686249</v>
       </c>
       <c r="C3">
-        <v>14.32643982476007</v>
+        <v>14.32643982476003</v>
       </c>
       <c r="D3">
-        <v>2.628966488067631</v>
+        <v>2.628966488067765</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.09806819073714</v>
+        <v>26.09806819073715</v>
       </c>
       <c r="G3">
-        <v>19.87639946286574</v>
+        <v>19.87639946286579</v>
       </c>
       <c r="H3">
-        <v>16.09000020461149</v>
+        <v>16.0900002046116</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.93311944336505</v>
+        <v>27.93311944336502</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79276549966733</v>
+        <v>22.79276549966727</v>
       </c>
       <c r="C4">
-        <v>13.68721254185425</v>
+        <v>13.68721254185408</v>
       </c>
       <c r="D4">
-        <v>2.705991604916211</v>
+        <v>2.705991604916616</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.17417652890647</v>
+        <v>25.17417652890646</v>
       </c>
       <c r="G4">
-        <v>19.29034106441475</v>
+        <v>19.29034106441478</v>
       </c>
       <c r="H4">
-        <v>15.84541745973071</v>
+        <v>15.84541745973072</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.46776236828104</v>
+        <v>26.46776236828107</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.31048648530741</v>
+        <v>22.31048648530734</v>
       </c>
       <c r="C5">
-        <v>13.41870903104747</v>
+        <v>13.41870903104752</v>
       </c>
       <c r="D5">
-        <v>2.737362012032946</v>
+        <v>2.737362012033079</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.79884636751915</v>
+        <v>24.79884636751918</v>
       </c>
       <c r="G5">
-        <v>19.05519608981332</v>
+        <v>19.05519608981338</v>
       </c>
       <c r="H5">
-        <v>15.75256176608957</v>
+        <v>15.75256176608968</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.85637032473767</v>
+        <v>25.85637032473761</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.22952478851265</v>
+        <v>22.22952478851264</v>
       </c>
       <c r="C6">
-        <v>13.37363889881216</v>
+        <v>13.37363889881232</v>
       </c>
       <c r="D6">
-        <v>2.742571702447883</v>
+        <v>2.742571702447882</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.73660315965141</v>
+        <v>24.73660315965135</v>
       </c>
       <c r="G6">
-        <v>19.01637652147176</v>
+        <v>19.01637652147171</v>
       </c>
       <c r="H6">
-        <v>15.7375456541667</v>
+        <v>15.73754565416665</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.75396999572771</v>
+        <v>25.75396999572773</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.78632014607175</v>
+        <v>22.7863201460717</v>
       </c>
       <c r="C7">
-        <v>13.68362391859776</v>
+        <v>13.68362391859788</v>
       </c>
       <c r="D7">
-        <v>2.706414670232747</v>
+        <v>2.70641467023268</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.16910955488939</v>
+        <v>25.16910955488941</v>
       </c>
       <c r="G7">
-        <v>19.28715475109098</v>
+        <v>19.28715475109096</v>
       </c>
       <c r="H7">
-        <v>15.84413799201873</v>
+        <v>15.84413799201871</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.45957546061102</v>
+        <v>26.4595754606111</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.11705738705158</v>
+        <v>25.11705738705151</v>
       </c>
       <c r="C8">
-        <v>14.9813202186676</v>
+        <v>14.98132021866761</v>
       </c>
       <c r="D8">
-        <v>2.546533982475076</v>
+        <v>2.546533982475276</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>27.08713021868981</v>
       </c>
       <c r="G8">
-        <v>20.51403647764645</v>
+        <v>20.51403647764648</v>
       </c>
       <c r="H8">
-        <v>16.37512780388245</v>
+        <v>16.37512780388252</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.44999938314338</v>
+        <v>29.44999938314328</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.25096541256092</v>
+        <v>29.25096541256094</v>
       </c>
       <c r="C9">
-        <v>17.27849393117386</v>
+        <v>17.27849393117387</v>
       </c>
       <c r="D9">
-        <v>2.22709756315836</v>
+        <v>2.227097563158428</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.87078655368769</v>
+        <v>30.87078655368772</v>
       </c>
       <c r="G9">
         <v>23.03097462294759</v>
       </c>
       <c r="H9">
-        <v>17.65378732257401</v>
+        <v>17.65378732257399</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.92200145498484</v>
+        <v>34.92200145498482</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.0410010262375</v>
+        <v>32.04100102623763</v>
       </c>
       <c r="C10">
-        <v>18.82126575034922</v>
+        <v>18.82126575034928</v>
       </c>
       <c r="D10">
-        <v>1.983351699493352</v>
+        <v>1.983351699493351</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.85150893014518</v>
+        <v>33.85150893014532</v>
       </c>
       <c r="G10">
-        <v>25.14494336935715</v>
+        <v>25.14494336935729</v>
       </c>
       <c r="H10">
-        <v>18.75657855418269</v>
+        <v>18.75657855418267</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>38.76245311174581</v>
+        <v>38.76245311174592</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.26166256632195</v>
+        <v>33.26166256632202</v>
       </c>
       <c r="C11">
-        <v>19.49329149881544</v>
+        <v>19.49329149881546</v>
       </c>
       <c r="D11">
-        <v>1.868989210424544</v>
+        <v>1.868989210424476</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.26279730773012</v>
+        <v>35.2627973077302</v>
       </c>
       <c r="G11">
-        <v>26.22881611761311</v>
+        <v>26.22881611761317</v>
       </c>
       <c r="H11">
-        <v>19.29846259148733</v>
+        <v>19.29846259148736</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.71742157704674</v>
+        <v>33.71742157704667</v>
       </c>
       <c r="C12">
-        <v>19.74364911614587</v>
+        <v>19.74364911614581</v>
       </c>
       <c r="D12">
-        <v>1.825027150071869</v>
+        <v>1.825027150071874</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.79644019869772</v>
+        <v>35.7964401986976</v>
       </c>
       <c r="G12">
-        <v>26.63894485632464</v>
+        <v>26.63894485632451</v>
       </c>
       <c r="H12">
-        <v>19.55945457623992</v>
+        <v>19.55945457623983</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.13913838795822</v>
+        <v>41.13913838795821</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.61954493684133</v>
+        <v>33.61954493684129</v>
       </c>
       <c r="C13">
-        <v>19.68991073836914</v>
+        <v>19.68991073836913</v>
       </c>
       <c r="D13">
-        <v>1.834527103920216</v>
+        <v>1.83452710392022</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.68153205962832</v>
+        <v>35.68153205962823</v>
       </c>
       <c r="G13">
-        <v>26.55061880524104</v>
+        <v>26.55061880524097</v>
       </c>
       <c r="H13">
-        <v>19.49316292186057</v>
+        <v>19.49316292186051</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>40.99879547212375</v>
+        <v>40.99879547212376</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.29928479701652</v>
+        <v>33.29928479701639</v>
       </c>
       <c r="C14">
-        <v>19.51397022112222</v>
+        <v>19.51397022112229</v>
       </c>
       <c r="D14">
-        <v>1.865386554444041</v>
+        <v>1.865386554443975</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.30671135574679</v>
+        <v>35.30671135574656</v>
       </c>
       <c r="G14">
-        <v>26.26255986804622</v>
+        <v>26.26255986804602</v>
       </c>
       <c r="H14">
-        <v>19.31573129035926</v>
+        <v>19.31573129035917</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.54099667282243</v>
+        <v>40.54099667282236</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.10228882526174</v>
+        <v>33.10228882526173</v>
       </c>
       <c r="C15">
-        <v>19.40566965829891</v>
+        <v>19.40566965829885</v>
       </c>
       <c r="D15">
-        <v>1.884198400201331</v>
+        <v>1.88419840020133</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.07704529175481</v>
+        <v>35.07704529175479</v>
       </c>
       <c r="G15">
-        <v>26.08609553375515</v>
+        <v>26.08609553375513</v>
       </c>
       <c r="H15">
-        <v>19.22568458408923</v>
+        <v>19.22568458408924</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.26045857634637</v>
+        <v>40.26045857634632</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.96029206536213</v>
+        <v>31.96029206536212</v>
       </c>
       <c r="C16">
-        <v>18.77676097590179</v>
+        <v>18.77676097590167</v>
       </c>
       <c r="D16">
-        <v>1.990742915025583</v>
+        <v>1.990742915025714</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>33.7591261392453</v>
       </c>
       <c r="G16">
-        <v>25.0740302864134</v>
+        <v>25.07403028641338</v>
       </c>
       <c r="H16">
-        <v>18.72201338440968</v>
+        <v>18.72201338440971</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.64942448832581</v>
+        <v>38.64942448832585</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.24761221329198</v>
+        <v>31.24761221329197</v>
       </c>
       <c r="C17">
-        <v>18.38342257756769</v>
+        <v>18.38342257756783</v>
       </c>
       <c r="D17">
-        <v>2.055111458795581</v>
+        <v>2.055111458795782</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.94842929777924</v>
+        <v>32.94842929777919</v>
       </c>
       <c r="G17">
-        <v>24.45192417429964</v>
+        <v>24.45192417429958</v>
       </c>
       <c r="H17">
-        <v>18.42364058951033</v>
+        <v>18.42364058951028</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.65658663978692</v>
+        <v>37.65658663978698</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.83309437940879</v>
+        <v>30.8330943794088</v>
       </c>
       <c r="C18">
         <v>18.15436998098777</v>
       </c>
       <c r="D18">
-        <v>2.091817665140333</v>
+        <v>2.091817665140332</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.48112114835141</v>
+        <v>32.48112114835146</v>
       </c>
       <c r="G18">
-        <v>24.09943712415491</v>
+        <v>24.09943712415497</v>
       </c>
       <c r="H18">
-        <v>18.25577606719014</v>
+        <v>18.25577606719018</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.08332272152686</v>
+        <v>37.0833227215269</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.69194124891313</v>
+        <v>30.69194124891317</v>
       </c>
       <c r="C19">
-        <v>18.0763287819475</v>
+        <v>18.07632878194755</v>
       </c>
       <c r="D19">
-        <v>2.104195594335224</v>
+        <v>2.104195594335228</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,10 +1073,10 @@
         <v>32.322706375168</v>
       </c>
       <c r="G19">
-        <v>24.00188087712494</v>
+        <v>24.00188087712491</v>
       </c>
       <c r="H19">
-        <v>18.19957129944821</v>
+        <v>18.1995712994482</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>36.88879775469452</v>
+        <v>36.88879775469448</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.32395125972874</v>
+        <v>31.32395125972873</v>
       </c>
       <c r="C20">
-        <v>18.42558435532986</v>
+        <v>18.4255843553298</v>
       </c>
       <c r="D20">
-        <v>2.048293144006959</v>
+        <v>2.04829314400696</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.03483026361155</v>
+        <v>33.03483026361142</v>
       </c>
       <c r="G20">
-        <v>24.51821035084901</v>
+        <v>24.5182103508489</v>
       </c>
       <c r="H20">
-        <v>18.4550114388506</v>
+        <v>18.45501143885057</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.39352436726083</v>
+        <v>33.39352436726094</v>
       </c>
       <c r="C21">
-        <v>19.56575874755469</v>
+        <v>19.56575874755473</v>
       </c>
       <c r="D21">
-        <v>1.856341556426862</v>
+        <v>1.856341556426725</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.41681989979368</v>
+        <v>35.41681989979373</v>
       </c>
       <c r="G21">
-        <v>26.34717260536145</v>
+        <v>26.3471726053615</v>
       </c>
       <c r="H21">
-        <v>19.35913576355892</v>
+        <v>19.35913576355891</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>40.67548516874297</v>
+        <v>40.67548516874292</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70864684270772</v>
+        <v>34.70864684270773</v>
       </c>
       <c r="C22">
         <v>20.2869830308018</v>
       </c>
       <c r="D22">
-        <v>1.726975003384245</v>
+        <v>1.726975003384246</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.96951857457658</v>
+        <v>36.9695185745765</v>
       </c>
       <c r="G22">
-        <v>27.54110319861547</v>
+        <v>27.54110319861542</v>
       </c>
       <c r="H22">
-        <v>20.23969651436697</v>
+        <v>20.23969651436693</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.57225705870363</v>
+        <v>42.57225705870373</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00997913328972</v>
+        <v>34.00997913328963</v>
       </c>
       <c r="C23">
-        <v>19.90418392398732</v>
+        <v>19.90418392398719</v>
       </c>
       <c r="D23">
         <v>1.796437827774065</v>
@@ -1222,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.14089925699486</v>
+        <v>36.14089925699481</v>
       </c>
       <c r="G23">
-        <v>26.90376566215447</v>
+        <v>26.90376566215443</v>
       </c>
       <c r="H23">
-        <v>19.75854472887879</v>
+        <v>19.75854472887876</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.55985802112904</v>
+        <v>41.55985802112908</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.2894533291928</v>
+        <v>31.28945332919271</v>
       </c>
       <c r="C24">
-        <v>18.4065321135215</v>
+        <v>18.40653211352157</v>
       </c>
       <c r="D24">
-        <v>2.051376627646559</v>
+        <v>2.051376627646495</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.99577226038019</v>
+        <v>32.99577226038009</v>
       </c>
       <c r="G24">
-        <v>24.48824489280232</v>
+        <v>24.48824489280222</v>
       </c>
       <c r="H24">
-        <v>18.4408172691425</v>
+        <v>18.44081726914249</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.7146205335536</v>
+        <v>37.71462053355349</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.17756307317552</v>
+        <v>28.17756307317549</v>
       </c>
       <c r="C25">
-        <v>16.68300104892548</v>
+        <v>16.68300104892545</v>
       </c>
       <c r="D25">
-        <v>2.314657530713927</v>
+        <v>2.31465753071413</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.84509306428563</v>
+        <v>29.84509306428564</v>
       </c>
       <c r="G25">
-        <v>22.3381266551255</v>
+        <v>22.33812665512552</v>
       </c>
       <c r="H25">
-        <v>17.28061155761562</v>
+        <v>17.28061155761564</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.47815699867603</v>
+        <v>33.47815699867592</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.71839480963704</v>
+        <v>25.71765883114243</v>
       </c>
       <c r="C2">
-        <v>15.31598974789431</v>
+        <v>15.3119822688468</v>
       </c>
       <c r="D2">
-        <v>2.502988093239381</v>
+        <v>2.503449538765074</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.60855464958279</v>
+        <v>27.58983408687058</v>
       </c>
       <c r="G2">
-        <v>20.85401715157148</v>
+        <v>20.0975994942762</v>
       </c>
       <c r="H2">
-        <v>16.5344034658859</v>
+        <v>20.88713141331374</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.52149778592615</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.23184380038125</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.23147349507672</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.94077511686249</v>
+        <v>23.94024881292211</v>
       </c>
       <c r="C3">
-        <v>14.32643982476003</v>
+        <v>14.32288318414379</v>
       </c>
       <c r="D3">
-        <v>2.628966488067765</v>
+        <v>2.62918861368846</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.09806819073715</v>
+        <v>26.08064958013244</v>
       </c>
       <c r="G3">
-        <v>19.87639946286579</v>
+        <v>18.84856285451875</v>
       </c>
       <c r="H3">
-        <v>16.0900002046116</v>
+        <v>19.9079969119415</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.07818748295113</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.93311944336502</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27.93287529896102</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.79276549966727</v>
+        <v>22.7923638906301</v>
       </c>
       <c r="C4">
-        <v>13.68721254185408</v>
+        <v>13.68394429502192</v>
       </c>
       <c r="D4">
-        <v>2.705991604916616</v>
+        <v>2.706067954190028</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.17417652890646</v>
+        <v>25.15758003586108</v>
       </c>
       <c r="G4">
-        <v>19.29034106441478</v>
+        <v>18.07861994659196</v>
       </c>
       <c r="H4">
-        <v>15.84541745973072</v>
+        <v>19.32105194807998</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.83429135639938</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.46776236828107</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.46758608945147</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.31048648530734</v>
+        <v>22.31013497070472</v>
       </c>
       <c r="C5">
-        <v>13.41870903104752</v>
+        <v>13.41556154830513</v>
       </c>
       <c r="D5">
-        <v>2.737362012033079</v>
+        <v>2.737379036759191</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.79884636751918</v>
+        <v>24.78259080390874</v>
       </c>
       <c r="G5">
-        <v>19.05519608981338</v>
+        <v>17.76428619904205</v>
       </c>
       <c r="H5">
-        <v>15.75256176608968</v>
+        <v>19.08555740076412</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.74171874332612</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.85637032473761</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.85621969638911</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.22952478851264</v>
+        <v>22.22918155685201</v>
       </c>
       <c r="C6">
-        <v>13.37363889881232</v>
+        <v>13.37051167450689</v>
       </c>
       <c r="D6">
-        <v>2.742571702447882</v>
+        <v>2.742578875731528</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.73660315965135</v>
+        <v>24.72040456687665</v>
       </c>
       <c r="G6">
-        <v>19.01637652147171</v>
+        <v>17.71206390710304</v>
       </c>
       <c r="H6">
-        <v>15.73754565416665</v>
+        <v>19.04668050661967</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.72674981486123</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.75396999572773</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.75382351607399</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.7863201460717</v>
+        <v>22.78591921516325</v>
       </c>
       <c r="C7">
-        <v>13.68362391859788</v>
+        <v>13.68035728686395</v>
       </c>
       <c r="D7">
-        <v>2.70641467023268</v>
+        <v>2.70649021936265</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.16910955488941</v>
+        <v>25.15251763565878</v>
       </c>
       <c r="G7">
-        <v>19.28715475109096</v>
+        <v>18.07438274426921</v>
       </c>
       <c r="H7">
-        <v>15.84413799201871</v>
+        <v>19.31786087228293</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.83301569402687</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.4595754606111</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.45939953534557</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.11705738705151</v>
+        <v>25.11639473158786</v>
       </c>
       <c r="C8">
-        <v>14.98132021866761</v>
+        <v>14.97746598191906</v>
       </c>
       <c r="D8">
-        <v>2.546533982475276</v>
+        <v>2.546912526945055</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.08713021868981</v>
+        <v>27.06885402233954</v>
       </c>
       <c r="G8">
-        <v>20.51403647764648</v>
+        <v>19.66764019182198</v>
       </c>
       <c r="H8">
-        <v>16.37512780388252</v>
+        <v>20.54661872010277</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.36259540214095</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.44999938314328</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.44967484058702</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.25096541256094</v>
+        <v>29.2497422732849</v>
       </c>
       <c r="C9">
-        <v>17.27849393117387</v>
+        <v>17.27356465741843</v>
       </c>
       <c r="D9">
-        <v>2.227097563158428</v>
+        <v>2.228091862757433</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.87078655368772</v>
+        <v>30.8493703431477</v>
       </c>
       <c r="G9">
-        <v>23.03097462294759</v>
+        <v>22.78575632155643</v>
       </c>
       <c r="H9">
-        <v>17.65378732257399</v>
+        <v>23.06757273275359</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.6386346486017</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.92200145498482</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>34.92128588417013</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.04100102623763</v>
+        <v>32.03931227369623</v>
       </c>
       <c r="C10">
-        <v>18.82126575034928</v>
+        <v>18.81557281858364</v>
       </c>
       <c r="D10">
-        <v>1.983351699493351</v>
+        <v>1.984835018908415</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.85150893014532</v>
+        <v>33.82739422427258</v>
       </c>
       <c r="G10">
-        <v>25.14494336935729</v>
+        <v>25.18590090944069</v>
       </c>
       <c r="H10">
-        <v>18.75657855418267</v>
+        <v>25.03069124855513</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.73960534472857</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>38.76245311174592</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>38.76134577573619</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.26166256632202</v>
+        <v>33.25974309757585</v>
       </c>
       <c r="C11">
-        <v>19.49329149881546</v>
+        <v>19.4872517350526</v>
       </c>
       <c r="D11">
-        <v>1.868989210424476</v>
+        <v>1.870711027545787</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.2627973077302</v>
+        <v>35.23768015078832</v>
       </c>
       <c r="G11">
-        <v>26.22881611761317</v>
+        <v>26.27147546803431</v>
       </c>
       <c r="H11">
-        <v>19.29846259148736</v>
+        <v>26.06274903928142</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.28068256983778</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.48735780316176</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.48603508972782</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.71742157704667</v>
+        <v>33.71541123893149</v>
       </c>
       <c r="C12">
-        <v>19.74364911614581</v>
+        <v>19.7374776023435</v>
       </c>
       <c r="D12">
-        <v>1.825027150071874</v>
+        <v>1.826842610294967</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.7964401986976</v>
+        <v>35.77094140310456</v>
       </c>
       <c r="G12">
-        <v>26.63894485632451</v>
+        <v>26.68224865142147</v>
       </c>
       <c r="H12">
-        <v>19.55945457623983</v>
+        <v>26.45431377468465</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.54049749250479</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>41.13913838795821</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>41.13772702966459</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.61954493684129</v>
+        <v>33.61755433943611</v>
       </c>
       <c r="C13">
-        <v>19.68991073836913</v>
+        <v>19.68376762631869</v>
       </c>
       <c r="D13">
-        <v>1.83452710392022</v>
+        <v>1.836322227541996</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.68153205962823</v>
+        <v>35.65611557459156</v>
       </c>
       <c r="G13">
-        <v>26.55061880524097</v>
+        <v>26.59378380458705</v>
       </c>
       <c r="H13">
-        <v>19.49316292186051</v>
+        <v>26.36993989625127</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.47426175070688</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>40.99879547212376</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>40.99740355443766</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.29928479701639</v>
+        <v>33.29735792776962</v>
       </c>
       <c r="C14">
-        <v>19.51397022112229</v>
+        <v>19.50791962956651</v>
       </c>
       <c r="D14">
-        <v>1.865386554443975</v>
+        <v>1.867116001579211</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.30671135574656</v>
+        <v>35.28156285164355</v>
       </c>
       <c r="G14">
-        <v>26.26255986804602</v>
+        <v>26.30527223623756</v>
       </c>
       <c r="H14">
-        <v>19.31573129035917</v>
+        <v>26.0949447275905</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.2979262969287</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.54099667282236</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>40.53966682063506</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.10228882526173</v>
+        <v>33.10040050870393</v>
       </c>
       <c r="C15">
-        <v>19.40566965829885</v>
+        <v>19.39967566859117</v>
       </c>
       <c r="D15">
-        <v>1.88419840020133</v>
+        <v>1.885888089450645</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.07704529175479</v>
+        <v>35.05206061914984</v>
       </c>
       <c r="G15">
-        <v>26.08609553375513</v>
+        <v>26.12853065787769</v>
       </c>
       <c r="H15">
-        <v>19.22568458408924</v>
+        <v>25.9266179419101</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.20801027481681</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>40.26045857634632</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.25916575656364</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.96029206536212</v>
+        <v>31.95861794748097</v>
       </c>
       <c r="C16">
-        <v>18.77676097590167</v>
+        <v>18.77109068123644</v>
       </c>
       <c r="D16">
-        <v>1.990742915025714</v>
+        <v>1.992211049545584</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.7591261392453</v>
+        <v>33.73507674950292</v>
       </c>
       <c r="G16">
-        <v>25.07403028641338</v>
+        <v>25.11487660226003</v>
       </c>
       <c r="H16">
-        <v>18.72201338440971</v>
+        <v>24.96331616173873</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.70509329641873</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.64942448832585</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>38.6483303436513</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.24761221329197</v>
+        <v>31.24606415608327</v>
       </c>
       <c r="C17">
-        <v>18.38342257756783</v>
+        <v>18.37795067446882</v>
       </c>
       <c r="D17">
-        <v>2.055111458795782</v>
+        <v>2.056448398116477</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.94842929777919</v>
+        <v>32.92495173028917</v>
       </c>
       <c r="G17">
-        <v>24.45192417429958</v>
+        <v>24.49179568167751</v>
       </c>
       <c r="H17">
-        <v>18.42364058951028</v>
+        <v>24.42721702875129</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.4071884098046</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.65658663978698</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>37.65560378619679</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.8330943794088</v>
+        <v>30.83161710566393</v>
       </c>
       <c r="C18">
-        <v>18.15436998098777</v>
+        <v>18.1490122733634</v>
       </c>
       <c r="D18">
-        <v>2.091817665140332</v>
+        <v>2.093080575452537</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.48112114835146</v>
+        <v>32.45797221153484</v>
       </c>
       <c r="G18">
-        <v>24.09943712415497</v>
+        <v>24.132781601307</v>
       </c>
       <c r="H18">
-        <v>18.25577606719018</v>
+        <v>24.13777566149999</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.23959507633578</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.0833227215269</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>37.0824005131695</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.69194124891317</v>
+        <v>30.69048766617686</v>
       </c>
       <c r="C19">
-        <v>18.07632878194755</v>
+        <v>18.07100976754675</v>
       </c>
       <c r="D19">
-        <v>2.104195594335228</v>
+        <v>2.105433660287943</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.322706375168</v>
+        <v>32.29966870007379</v>
       </c>
       <c r="G19">
-        <v>24.00188087712491</v>
+        <v>24.01110139587531</v>
       </c>
       <c r="H19">
-        <v>18.1995712994482</v>
+        <v>24.0400600054003</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.18348249216858</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>36.88879775469448</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>36.88789554590005</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.32395125972873</v>
+        <v>31.32238996658413</v>
       </c>
       <c r="C20">
-        <v>18.4255843553298</v>
+        <v>18.42009132755549</v>
       </c>
       <c r="D20">
-        <v>2.04829314400696</v>
+        <v>2.049643894984545</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.03483026361142</v>
+        <v>33.01129186166825</v>
       </c>
       <c r="G20">
-        <v>24.5182103508489</v>
+        <v>24.55818563509118</v>
       </c>
       <c r="H20">
-        <v>18.45501143885057</v>
+        <v>24.48092344716589</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.43850923882601</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>37.76249296756322</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>37.76149862611438</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.39352436726094</v>
+        <v>33.39157888177792</v>
       </c>
       <c r="C21">
-        <v>19.56575874755473</v>
+        <v>19.55968099598955</v>
       </c>
       <c r="D21">
-        <v>1.856341556426725</v>
+        <v>1.858090193770079</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.41681989979373</v>
+        <v>35.39159275192058</v>
       </c>
       <c r="G21">
-        <v>26.3471726053615</v>
+        <v>26.39001792079999</v>
       </c>
       <c r="H21">
-        <v>19.35913576355891</v>
+        <v>26.17569218027365</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.34126818969883</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>40.67548516874292</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>40.67413729556606</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70864684270773</v>
+        <v>34.70642933296168</v>
       </c>
       <c r="C22">
-        <v>20.2869830308018</v>
+        <v>20.28052043565317</v>
       </c>
       <c r="D22">
-        <v>1.726975003384246</v>
+        <v>1.72900390709259</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.9695185745765</v>
+        <v>36.94317490676924</v>
       </c>
       <c r="G22">
-        <v>27.54110319861542</v>
+        <v>27.58582440715426</v>
       </c>
       <c r="H22">
-        <v>20.23969651436693</v>
+        <v>27.3174764934294</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.22016808603695</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>42.57225705870373</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>42.57063554242171</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00997913328963</v>
+        <v>34.00790903696117</v>
       </c>
       <c r="C23">
-        <v>19.90418392398719</v>
+        <v>19.8979271578098</v>
       </c>
       <c r="D23">
-        <v>1.796437827774065</v>
+        <v>1.798314839790072</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.14089925699481</v>
+        <v>36.11515326074593</v>
       </c>
       <c r="G23">
-        <v>26.90376566215443</v>
+        <v>26.94748559529912</v>
       </c>
       <c r="H23">
-        <v>19.75854472887876</v>
+        <v>26.7074320469031</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.73942000024094</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>41.55985802112908</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>41.55838719335664</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.28945332919271</v>
+        <v>31.28789802522397</v>
       </c>
       <c r="C24">
-        <v>18.40653211352157</v>
+        <v>18.40104863574835</v>
       </c>
       <c r="D24">
-        <v>2.051376627646495</v>
+        <v>2.052721130094557</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.99577226038009</v>
+        <v>32.9722613619544</v>
       </c>
       <c r="G24">
-        <v>24.48824489280222</v>
+        <v>24.52817326053231</v>
       </c>
       <c r="H24">
-        <v>18.44081726914249</v>
+        <v>24.45663787569924</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.42433767647379</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.71462053355349</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>37.71363139603833</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.17756307317549</v>
+        <v>28.17649893857879</v>
       </c>
       <c r="C25">
-        <v>16.68300104892545</v>
+        <v>16.6783564145778</v>
       </c>
       <c r="D25">
-        <v>2.31465753071413</v>
+        <v>2.315480925536426</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.84509306428564</v>
+        <v>29.82451200017105</v>
       </c>
       <c r="G25">
-        <v>22.33812665512552</v>
+        <v>21.93014992732797</v>
       </c>
       <c r="H25">
-        <v>17.28061155761564</v>
+        <v>22.3736046438781</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.26614979661371</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.47815699867592</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>33.47756168254373</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.71765883114243</v>
+        <v>24.24606510306098</v>
       </c>
       <c r="C2">
-        <v>15.3119822688468</v>
+        <v>17.4404532969693</v>
       </c>
       <c r="D2">
-        <v>2.503449538765074</v>
+        <v>4.708465778693414</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.58983408687058</v>
+        <v>42.94598802552947</v>
       </c>
       <c r="G2">
-        <v>20.0975994942762</v>
+        <v>2.083478801477719</v>
       </c>
       <c r="H2">
-        <v>20.88713141331374</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.52149778592615</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.304381757641309</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.26467512649653</v>
       </c>
       <c r="L2">
-        <v>30.23147349507672</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>13.69482982356737</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.94024881292211</v>
+        <v>22.57340920221613</v>
       </c>
       <c r="C3">
-        <v>14.32288318414379</v>
+        <v>16.17048144920565</v>
       </c>
       <c r="D3">
-        <v>2.62918861368846</v>
+        <v>4.4991148223415</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.08064958013244</v>
+        <v>41.09118567908689</v>
       </c>
       <c r="G3">
-        <v>18.84856285451875</v>
+        <v>2.096087553283476</v>
       </c>
       <c r="H3">
-        <v>19.9079969119415</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.07818748295113</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.027247605158079</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.71796151063109</v>
       </c>
       <c r="L3">
-        <v>27.93287529896102</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.90228498737965</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.7923638906301</v>
+        <v>21.56116418064342</v>
       </c>
       <c r="C4">
-        <v>13.68394429502192</v>
+        <v>15.35564061321626</v>
       </c>
       <c r="D4">
-        <v>2.706067954190028</v>
+        <v>4.368535008906317</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.15758003586108</v>
+        <v>39.96348792077679</v>
       </c>
       <c r="G4">
-        <v>18.07861994659196</v>
+        <v>2.103970464498277</v>
       </c>
       <c r="H4">
-        <v>19.32105194807998</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.83429135639938</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.860607217236456</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.84450137401259</v>
       </c>
       <c r="L4">
-        <v>26.46758608945147</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>14.03454782198126</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.31013497070472</v>
+        <v>21.14015510517126</v>
       </c>
       <c r="C5">
-        <v>13.41556154830513</v>
+        <v>15.01460550650943</v>
       </c>
       <c r="D5">
-        <v>2.737379036759191</v>
+        <v>4.314873698066928</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.78259080390874</v>
+        <v>39.5070024999478</v>
       </c>
       <c r="G5">
-        <v>17.76428619904205</v>
+        <v>2.107222227356755</v>
       </c>
       <c r="H5">
-        <v>19.08555740076412</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.74171874332612</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.7936101356946</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.48988852070047</v>
       </c>
       <c r="L5">
-        <v>25.85621969638911</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>14.08963498249704</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.22918155685201</v>
+        <v>21.0697373643858</v>
       </c>
       <c r="C6">
-        <v>13.37051167450689</v>
+        <v>14.95743033654227</v>
       </c>
       <c r="D6">
-        <v>2.742578875731528</v>
+        <v>4.305938240627006</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.72040456687665</v>
+        <v>39.43139729353839</v>
       </c>
       <c r="G6">
-        <v>17.71206390710304</v>
+        <v>2.107764668789216</v>
       </c>
       <c r="H6">
-        <v>19.04668050661967</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.72674981486123</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.782541165839434</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.43061877467814</v>
       </c>
       <c r="L6">
-        <v>25.75382351607399</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>14.09885297257876</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.78591921516325</v>
+        <v>21.55552057480992</v>
       </c>
       <c r="C7">
-        <v>13.68035728686395</v>
+        <v>15.35107784901783</v>
       </c>
       <c r="D7">
-        <v>2.70649021936265</v>
+        <v>4.367813039275671</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.15251763565878</v>
+        <v>39.95731881026909</v>
       </c>
       <c r="G7">
-        <v>18.07438274426921</v>
+        <v>2.104014154387559</v>
       </c>
       <c r="H7">
-        <v>19.31786087228293</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.83301569402687</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.859699947276553</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.83974498314706</v>
       </c>
       <c r="L7">
-        <v>26.45939953534557</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>14.03528597879531</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.11639473158786</v>
+        <v>23.65574394544081</v>
       </c>
       <c r="C8">
-        <v>14.97746598191906</v>
+        <v>17.00973952351586</v>
       </c>
       <c r="D8">
-        <v>2.546912526945055</v>
+        <v>4.636738776467887</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.06885402233954</v>
+        <v>42.30426137847556</v>
       </c>
       <c r="G8">
-        <v>19.66764019182198</v>
+        <v>2.087799504491108</v>
       </c>
       <c r="H8">
-        <v>20.54661872010277</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.36259540214095</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.208107214473975</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.74042720773032</v>
       </c>
       <c r="L8">
-        <v>29.44967484058702</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>13.76532040509376</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.2497422732849</v>
+        <v>27.74404414658507</v>
       </c>
       <c r="C9">
-        <v>17.27356465741843</v>
+        <v>19.99305484965557</v>
       </c>
       <c r="D9">
-        <v>2.228091862757433</v>
+        <v>5.145784134131827</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.8493703431477</v>
+        <v>46.9893247962399</v>
       </c>
       <c r="G9">
-        <v>22.78575632155643</v>
+        <v>2.056922415181659</v>
       </c>
       <c r="H9">
-        <v>23.06757273275359</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.6386346486017</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.918771599377125</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>24.36518562164809</v>
       </c>
       <c r="L9">
-        <v>34.92128588417013</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>13.27692864468529</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.03931227369623</v>
+        <v>30.54056059688848</v>
       </c>
       <c r="C10">
-        <v>18.81557281858364</v>
+        <v>22.03584485988056</v>
       </c>
       <c r="D10">
-        <v>1.984835018908415</v>
+        <v>5.506664434689596</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.82739422427258</v>
+        <v>50.48368856531918</v>
       </c>
       <c r="G10">
-        <v>25.18590090944069</v>
+        <v>2.034479060843439</v>
       </c>
       <c r="H10">
-        <v>25.03069124855513</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.73960534472857</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.458155903847851</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.83883281232661</v>
       </c>
       <c r="L10">
-        <v>38.76134577573619</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>12.94719570073882</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.25974309757585</v>
+        <v>31.77279423211967</v>
       </c>
       <c r="C11">
-        <v>19.4872517350526</v>
+        <v>22.93698256669569</v>
       </c>
       <c r="D11">
-        <v>1.870711027545787</v>
+        <v>5.667848558562802</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.23768015078832</v>
+        <v>52.08827508613473</v>
       </c>
       <c r="G11">
-        <v>26.27147546803431</v>
+        <v>2.024236643448727</v>
       </c>
       <c r="H11">
-        <v>26.06274903928142</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.28068256983778</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.70782396722003</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.92788470746491</v>
       </c>
       <c r="L11">
-        <v>40.48603508972782</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>12.80477646125104</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.71541123893149</v>
+        <v>32.23418059710195</v>
       </c>
       <c r="C12">
-        <v>19.7374776023435</v>
+        <v>23.27459486833705</v>
       </c>
       <c r="D12">
-        <v>1.826842610294967</v>
+        <v>5.728462273265259</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.77094140310456</v>
+        <v>52.69858400216808</v>
       </c>
       <c r="G12">
-        <v>26.68224865142147</v>
+        <v>2.020344937861763</v>
       </c>
       <c r="H12">
-        <v>26.45431377468465</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.54049749250479</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.803064971499683</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28.33555430869986</v>
       </c>
       <c r="L12">
-        <v>41.13772702966459</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>12.7520772233647</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.61755433943611</v>
+        <v>32.13503652666201</v>
       </c>
       <c r="C13">
-        <v>19.68376762631869</v>
+        <v>23.20203800504904</v>
       </c>
       <c r="D13">
-        <v>1.836322227541996</v>
+        <v>5.715426601003884</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.65611557459156</v>
+        <v>52.56701272381449</v>
       </c>
       <c r="G13">
-        <v>26.59378380458705</v>
+        <v>2.021183818779186</v>
       </c>
       <c r="H13">
-        <v>26.36993989625127</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.47426175070688</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.78252049946714</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>28.24795731606752</v>
       </c>
       <c r="L13">
-        <v>40.99740355443766</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>12.76336952773603</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.29735792776962</v>
+        <v>31.81085443666224</v>
       </c>
       <c r="C14">
-        <v>19.50791962956651</v>
+        <v>22.96482821978479</v>
       </c>
       <c r="D14">
-        <v>1.867116001579211</v>
+        <v>5.672843682664238</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.28156285164355</v>
+        <v>52.13842788847303</v>
       </c>
       <c r="G14">
-        <v>26.30527223623756</v>
+        <v>2.023916786601929</v>
       </c>
       <c r="H14">
-        <v>26.0949447275905</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.2979262969287</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.715644960566841</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27.96151572632634</v>
       </c>
       <c r="L14">
-        <v>40.53966682063506</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>12.80041523898055</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.10040050870393</v>
+        <v>31.6116185116992</v>
       </c>
       <c r="C15">
-        <v>19.39967566859117</v>
+        <v>22.81907136861351</v>
       </c>
       <c r="D15">
-        <v>1.885888089450645</v>
+        <v>5.646705717642669</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.05206061914984</v>
+        <v>51.87627673177108</v>
       </c>
       <c r="G15">
-        <v>26.12853065787769</v>
+        <v>2.025588826217132</v>
       </c>
       <c r="H15">
-        <v>25.9266179419101</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.20801027481681</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.674775451476361</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>27.78546140699443</v>
       </c>
       <c r="L15">
-        <v>40.25916575656364</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>12.82327202726053</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.95861794748097</v>
+        <v>30.45926928249811</v>
       </c>
       <c r="C16">
-        <v>18.77109068123644</v>
+        <v>21.97642127660654</v>
       </c>
       <c r="D16">
-        <v>1.992211049545584</v>
+        <v>5.49607081362204</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.73507674950292</v>
+        <v>50.37916718685174</v>
       </c>
       <c r="G16">
-        <v>25.11487660226003</v>
+        <v>2.035147078379608</v>
       </c>
       <c r="H16">
-        <v>24.96331616173873</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>18.70509329641873</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.441932035311455</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.76697097577833</v>
       </c>
       <c r="L16">
-        <v>38.6483303436513</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>12.95666702033374</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.24606415608327</v>
+        <v>29.74244985056511</v>
       </c>
       <c r="C17">
-        <v>18.37795067446882</v>
+        <v>21.45255148453565</v>
       </c>
       <c r="D17">
-        <v>2.056448398116477</v>
+        <v>5.402896817692989</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.92495173028917</v>
+        <v>49.46488875822234</v>
       </c>
       <c r="G17">
-        <v>24.49179568167751</v>
+        <v>2.040996781030292</v>
       </c>
       <c r="H17">
-        <v>24.42721702875129</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.4071884098046</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.300237515630416</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.13319960718019</v>
       </c>
       <c r="L17">
-        <v>37.65560378619679</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>13.04053241381816</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.83161710566393</v>
+        <v>29.32636204054466</v>
       </c>
       <c r="C18">
-        <v>18.1490122733634</v>
+        <v>21.14855822260393</v>
       </c>
       <c r="D18">
-        <v>2.093080575452537</v>
+        <v>5.349023695329044</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.45797221153484</v>
+        <v>48.94038623406314</v>
       </c>
       <c r="G18">
-        <v>24.132781601307</v>
+        <v>2.04435886097443</v>
       </c>
       <c r="H18">
-        <v>24.13777566149999</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.23959507633578</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.219136755010867</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>25.76522892935565</v>
       </c>
       <c r="L18">
-        <v>37.0824005131695</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>13.08947256382278</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.69048766617686</v>
+        <v>29.18481653106443</v>
       </c>
       <c r="C19">
-        <v>18.07100976754675</v>
+        <v>21.04515991125244</v>
       </c>
       <c r="D19">
-        <v>2.105433660287943</v>
+        <v>5.330734829108478</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.29966870007379</v>
+        <v>48.76302057555137</v>
       </c>
       <c r="G19">
-        <v>24.01110139587531</v>
+        <v>2.045497006331499</v>
       </c>
       <c r="H19">
-        <v>24.0400600054003</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.18348249216858</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.191743931855461</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>25.64003582499002</v>
       </c>
       <c r="L19">
-        <v>36.88789554590005</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>13.1061597947284</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.32238996658413</v>
+        <v>29.81914559825887</v>
       </c>
       <c r="C20">
-        <v>18.42009132755549</v>
+        <v>21.50859259773342</v>
       </c>
       <c r="D20">
-        <v>2.049643894984545</v>
+        <v>5.412844530097265</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.01129186166825</v>
+        <v>49.5620706816125</v>
       </c>
       <c r="G20">
-        <v>24.55818563509118</v>
+        <v>2.040374387042642</v>
       </c>
       <c r="H20">
-        <v>24.48092344716589</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.43850923882601</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.31527946011162</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.20101867659205</v>
       </c>
       <c r="L20">
-        <v>37.76149862611438</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>13.03153111782228</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.39157888177792</v>
+        <v>31.9062121338786</v>
       </c>
       <c r="C21">
-        <v>19.55968099598955</v>
+        <v>23.03459729321418</v>
       </c>
       <c r="D21">
-        <v>1.858090193770079</v>
+        <v>5.685362686136415</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.39159275192058</v>
+        <v>52.2642353905126</v>
       </c>
       <c r="G21">
-        <v>26.39001792079999</v>
+        <v>2.023114477767519</v>
       </c>
       <c r="H21">
-        <v>26.17569218027365</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.34126818969883</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.735268214257372</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>28.0457747588537</v>
       </c>
       <c r="L21">
-        <v>40.67413729556606</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>12.78949928062067</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.70642933296168</v>
+        <v>33.2400277357979</v>
       </c>
       <c r="C22">
-        <v>20.28052043565317</v>
+        <v>24.0110249905146</v>
       </c>
       <c r="D22">
-        <v>1.72900390709259</v>
+        <v>5.861015572837842</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.94317490676924</v>
+        <v>54.04632843103383</v>
       </c>
       <c r="G22">
-        <v>27.58582440715426</v>
+        <v>2.011752671388157</v>
       </c>
       <c r="H22">
-        <v>27.3174764934294</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.22016808603695</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.01388017634083</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>29.22413623748454</v>
       </c>
       <c r="L22">
-        <v>42.57063554242171</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>12.63858980396004</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00790903696117</v>
+        <v>32.5307171173494</v>
       </c>
       <c r="C23">
-        <v>19.8979271578098</v>
+        <v>23.4916426937187</v>
       </c>
       <c r="D23">
-        <v>1.798314839790072</v>
+        <v>5.767485074892802</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.11515326074593</v>
+        <v>53.0934864232813</v>
       </c>
       <c r="G23">
-        <v>26.94748559529912</v>
+        <v>2.017827288530123</v>
       </c>
       <c r="H23">
-        <v>26.7074320469031</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.73942000024094</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.864767278608374</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.59754084232293</v>
       </c>
       <c r="L23">
-        <v>41.55838719335664</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>12.71841130751765</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.28789802522397</v>
+        <v>29.78448388067507</v>
       </c>
       <c r="C24">
-        <v>18.40104863574835</v>
+        <v>21.48326520446967</v>
       </c>
       <c r="D24">
-        <v>2.052721130094557</v>
+        <v>5.408348123128212</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.9722613619544</v>
+        <v>49.51813125683485</v>
       </c>
       <c r="G24">
-        <v>24.52817326053231</v>
+        <v>2.040655773840704</v>
       </c>
       <c r="H24">
-        <v>24.45663787569924</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.42433767647379</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.308477877092958</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.17036894554525</v>
       </c>
       <c r="L24">
-        <v>37.71363139603833</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>13.03559835644288</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.17649893857879</v>
+        <v>26.6758997630142</v>
       </c>
       <c r="C25">
-        <v>16.6783564145778</v>
+        <v>19.2134107817914</v>
       </c>
       <c r="D25">
-        <v>2.315480925536426</v>
+        <v>5.010284386566899</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.82451200017105</v>
+        <v>45.71336021718858</v>
       </c>
       <c r="G25">
-        <v>21.93014992732797</v>
+        <v>2.065207362098288</v>
       </c>
       <c r="H25">
-        <v>22.3736046438781</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.26614979661371</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.723591213533902</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.41932950878959</v>
       </c>
       <c r="L25">
-        <v>33.47756168254373</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.40429888842455</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.24606510306098</v>
+        <v>13.43267210520347</v>
       </c>
       <c r="C2">
-        <v>17.4404532969693</v>
+        <v>7.94711772926189</v>
       </c>
       <c r="D2">
-        <v>4.708465778693414</v>
+        <v>5.177368999699555</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.94598802552947</v>
+        <v>20.47445525862869</v>
       </c>
       <c r="G2">
-        <v>2.083478801477719</v>
+        <v>2.102766074834246</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.304381757641309</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.26467512649653</v>
+        <v>10.85280780018857</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.049780184676389</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.40338463786104</v>
       </c>
       <c r="N2">
-        <v>13.69482982356737</v>
+        <v>13.28246892107618</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.84261050489476</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57340920221613</v>
+        <v>12.60874214569692</v>
       </c>
       <c r="C3">
-        <v>16.17048144920565</v>
+        <v>7.965955488604324</v>
       </c>
       <c r="D3">
-        <v>4.4991148223415</v>
+        <v>5.047051011902819</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.09118567908689</v>
+        <v>20.15177008446547</v>
       </c>
       <c r="G3">
-        <v>2.096087553283476</v>
+        <v>2.107350014878539</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.027247605158079</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.71796151063109</v>
+        <v>10.23726140948716</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.945582669581644</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.06700022483779</v>
       </c>
       <c r="N3">
-        <v>13.90228498737965</v>
+        <v>13.4845072167099</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>16.79870270477869</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56116418064342</v>
+        <v>12.07882173828445</v>
       </c>
       <c r="C4">
-        <v>15.35564061321626</v>
+        <v>7.978494685681309</v>
       </c>
       <c r="D4">
-        <v>4.368535008906317</v>
+        <v>4.96470531198112</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.96348792077679</v>
+        <v>19.96726584677511</v>
       </c>
       <c r="G4">
-        <v>2.103970464498277</v>
+        <v>2.110257075810131</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.860607217236456</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>18.84450137401259</v>
+        <v>9.839703902814781</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.88434204886977</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.859240346328844</v>
       </c>
       <c r="N4">
-        <v>14.03454782198126</v>
+        <v>13.61145224175173</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.78382843872555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.14015510517126</v>
+        <v>11.85696579066463</v>
       </c>
       <c r="C5">
-        <v>15.01460550650943</v>
+        <v>7.983848382051292</v>
       </c>
       <c r="D5">
-        <v>4.314873698066928</v>
+        <v>4.93058874842287</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.5070024999478</v>
+        <v>19.89550939318797</v>
       </c>
       <c r="G5">
-        <v>2.107222227356755</v>
+        <v>2.111465436694024</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.7936101356946</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>18.48988852070047</v>
+        <v>9.672812394945138</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.860088792626853</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.774395121623542</v>
       </c>
       <c r="N5">
-        <v>14.08963498249704</v>
+        <v>13.66393067486067</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.78071332193063</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0697373643858</v>
+        <v>11.81977444841538</v>
       </c>
       <c r="C6">
-        <v>14.95743033654227</v>
+        <v>7.984752068844454</v>
       </c>
       <c r="D6">
-        <v>4.305938240627006</v>
+        <v>4.924890688320015</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.43139729353839</v>
+        <v>19.88380138555323</v>
       </c>
       <c r="G6">
-        <v>2.107764668789216</v>
+        <v>2.111667528942679</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.782541165839434</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>18.43061877467814</v>
+        <v>9.644806918666868</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.8561043973629</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.760299497507376</v>
       </c>
       <c r="N6">
-        <v>14.09885297257876</v>
+        <v>13.67269038177155</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.78037124886524</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55552057480992</v>
+        <v>12.07585343661803</v>
       </c>
       <c r="C7">
-        <v>15.35107784901783</v>
+        <v>7.978565900968269</v>
       </c>
       <c r="D7">
-        <v>4.367813039275671</v>
+        <v>4.964247436020861</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.95731881026909</v>
+        <v>19.96628422675075</v>
       </c>
       <c r="G7">
-        <v>2.104014154387559</v>
+        <v>2.110273275604169</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.859699947276553</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>18.83974498314706</v>
+        <v>9.837472845331217</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.884012097373375</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.858096657021528</v>
       </c>
       <c r="N7">
-        <v>14.03528597879531</v>
+        <v>13.61215693264348</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.78377462208869</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.65574394544081</v>
+        <v>13.15363590351566</v>
       </c>
       <c r="C8">
-        <v>17.00973952351586</v>
+        <v>7.953410629746989</v>
       </c>
       <c r="D8">
-        <v>4.636738776467887</v>
+        <v>5.132933841680363</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.30426137847556</v>
+        <v>20.36037118999161</v>
       </c>
       <c r="G8">
-        <v>2.087799504491108</v>
+        <v>2.104327694594712</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.208107214473975</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.74042720773032</v>
+        <v>10.64466119152471</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.013293978087924</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.28772448683757</v>
       </c>
       <c r="N8">
-        <v>13.76532040509376</v>
+        <v>13.35154360574133</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>16.8249078402381</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.74404414658507</v>
+        <v>15.20875054410556</v>
       </c>
       <c r="C9">
-        <v>19.99305484965557</v>
+        <v>7.911837325302243</v>
       </c>
       <c r="D9">
-        <v>5.145784134131827</v>
+        <v>5.444206544088985</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.9893247962399</v>
+        <v>21.24062536084548</v>
       </c>
       <c r="G9">
-        <v>2.056922415181659</v>
+        <v>2.093381074714835</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.918771599377125</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>24.36518562164809</v>
+        <v>12.07060524153496</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.287833497594395</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.1155351321249</v>
       </c>
       <c r="N9">
-        <v>13.27692864468529</v>
+        <v>12.86248481029955</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>17.00546513145168</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.54056059688848</v>
+        <v>16.59934060378889</v>
       </c>
       <c r="C10">
-        <v>22.03584485988056</v>
+        <v>7.886082414715275</v>
       </c>
       <c r="D10">
-        <v>5.506664434689596</v>
+        <v>5.659757760150972</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.48368856531918</v>
+        <v>21.9514411191046</v>
       </c>
       <c r="G10">
-        <v>2.034479060843439</v>
+        <v>2.085741785558606</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.458155903847851</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>26.83883281232661</v>
+        <v>13.02159713714541</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.501363867440223</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.70877951826436</v>
       </c>
       <c r="N10">
-        <v>12.94719570073882</v>
+        <v>12.51519183013774</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.20427308680007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.77279423211967</v>
+        <v>17.19888302472868</v>
       </c>
       <c r="C11">
-        <v>22.93698256669569</v>
+        <v>7.875421687332762</v>
       </c>
       <c r="D11">
-        <v>5.667848558562802</v>
+        <v>5.754741315609959</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>52.08827508613473</v>
+        <v>22.28831015438947</v>
       </c>
       <c r="G11">
-        <v>2.024236643448727</v>
+        <v>2.082346743809924</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.70782396722003</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>27.92788470746491</v>
+        <v>13.43323053044505</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.600855907181877</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.97436367727057</v>
       </c>
       <c r="N11">
-        <v>12.80477646125104</v>
+        <v>12.35948418058024</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.31013375736898</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.23418059710195</v>
+        <v>17.42121910434776</v>
       </c>
       <c r="C12">
-        <v>23.27459486833705</v>
+        <v>7.87153805961179</v>
       </c>
       <c r="D12">
-        <v>5.728462273265259</v>
+        <v>5.790251214946109</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.69858400216808</v>
+        <v>22.4177770595771</v>
       </c>
       <c r="G12">
-        <v>2.020344937861763</v>
+        <v>2.081072018494709</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.803064971499683</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>28.33555430869986</v>
+        <v>13.58609663584292</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.638851691490236</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.07424385646331</v>
       </c>
       <c r="N12">
-        <v>12.7520772233647</v>
+        <v>12.30082127301311</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.35251901622615</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.13503652666201</v>
+        <v>17.37354309879749</v>
       </c>
       <c r="C13">
-        <v>23.20203800504904</v>
+        <v>7.872367620073502</v>
       </c>
       <c r="D13">
-        <v>5.715426601003884</v>
+        <v>5.782624151074093</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>52.56701272381449</v>
+        <v>22.38981011865454</v>
       </c>
       <c r="G13">
-        <v>2.021183818779186</v>
+        <v>2.081346078673617</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.78252049946714</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>28.24795731606752</v>
+        <v>13.55330791630948</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.630654659464428</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.05276466836763</v>
       </c>
       <c r="N13">
-        <v>12.76336952773603</v>
+        <v>12.31344247982351</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.34328713946601</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.81085443666224</v>
+        <v>17.21726857894186</v>
       </c>
       <c r="C14">
-        <v>22.96482821978479</v>
+        <v>7.875099095538533</v>
       </c>
       <c r="D14">
-        <v>5.672843682664238</v>
+        <v>5.757672010190511</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>52.13842788847303</v>
+        <v>22.29892359576889</v>
       </c>
       <c r="G14">
-        <v>2.023916786601929</v>
+        <v>2.082241656531285</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.715644960566841</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>27.96151572632634</v>
+        <v>13.44586719552779</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.603975526839251</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.98259511281483</v>
       </c>
       <c r="N14">
-        <v>12.80041523898055</v>
+        <v>12.35465209338551</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.31357431214305</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.6116185116992</v>
+        <v>17.1209357898757</v>
       </c>
       <c r="C15">
-        <v>22.81907136861351</v>
+        <v>7.87679222579864</v>
       </c>
       <c r="D15">
-        <v>5.646705717642669</v>
+        <v>5.742327956512576</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.87627673177108</v>
+        <v>22.2434994249575</v>
       </c>
       <c r="G15">
-        <v>2.025588826217132</v>
+        <v>2.0827916248556</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.674775451476361</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>27.78546140699443</v>
+        <v>13.37966487886084</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.587674965933858</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.93952224511376</v>
       </c>
       <c r="N15">
-        <v>12.82327202726053</v>
+        <v>12.37993242950482</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.29567595778199</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.45926928249811</v>
+        <v>16.55949874674162</v>
       </c>
       <c r="C16">
-        <v>21.97642127660654</v>
+        <v>7.886800486917076</v>
       </c>
       <c r="D16">
-        <v>5.49607081362204</v>
+        <v>5.653487088889487</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.37916718685174</v>
+        <v>21.9296943547156</v>
       </c>
       <c r="G16">
-        <v>2.035147078379608</v>
+        <v>2.085965219653505</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.441932035311455</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>26.76697097577833</v>
+        <v>12.99427417258397</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.494907641259677</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.69133011735706</v>
       </c>
       <c r="N16">
-        <v>12.95666702033374</v>
+        <v>12.52541122224725</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.19767213212261</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.74244985056511</v>
+        <v>16.20664984081001</v>
       </c>
       <c r="C17">
-        <v>21.45255148453565</v>
+        <v>7.893211605915204</v>
       </c>
       <c r="D17">
-        <v>5.402896817692989</v>
+        <v>5.598186945458696</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.46488875822234</v>
+        <v>21.74061735311447</v>
       </c>
       <c r="G17">
-        <v>2.040996781030292</v>
+        <v>2.087932207803859</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.300237515630416</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>26.13319960718019</v>
+        <v>12.75247881555072</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.43858795965017</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.53791821281028</v>
       </c>
       <c r="N17">
-        <v>13.04053241381816</v>
+        <v>12.61522214511416</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.14155828198811</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.32636204054466</v>
+        <v>16.0005868840605</v>
       </c>
       <c r="C18">
-        <v>21.14855822260393</v>
+        <v>7.896998335936423</v>
       </c>
       <c r="D18">
-        <v>5.349023695329044</v>
+        <v>5.566091508480824</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.94038623406314</v>
+        <v>21.6331399963283</v>
       </c>
       <c r="G18">
-        <v>2.04435886097443</v>
+        <v>2.089071146572106</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.219136755010867</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25.76522892935565</v>
+        <v>12.61142921143017</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.406417202998869</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.44928012279479</v>
       </c>
       <c r="N18">
-        <v>13.08947256382278</v>
+        <v>12.66709512123209</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.1107300862049</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.18481653106443</v>
+        <v>15.93028112678472</v>
       </c>
       <c r="C19">
-        <v>21.04515991125244</v>
+        <v>7.898297453534154</v>
       </c>
       <c r="D19">
-        <v>5.330734829108478</v>
+        <v>5.555175572429049</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.76302057555137</v>
+        <v>21.59697020435338</v>
       </c>
       <c r="G19">
-        <v>2.045497006331499</v>
+        <v>2.089458091606247</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.191743931855461</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>25.64003582499002</v>
+        <v>12.5633328998625</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.395563584030603</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.4192025986559</v>
       </c>
       <c r="N19">
-        <v>13.1061597947284</v>
+        <v>12.68469634463919</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.10053820277595</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.81914559825887</v>
+        <v>16.24453306898592</v>
       </c>
       <c r="C20">
-        <v>21.50859259773342</v>
+        <v>7.892518851013432</v>
       </c>
       <c r="D20">
-        <v>5.412844530097265</v>
+        <v>5.604103699687195</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.5620706816125</v>
+        <v>21.76061329280658</v>
       </c>
       <c r="G20">
-        <v>2.040374387042642</v>
+        <v>2.087722038488893</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.31527946011162</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>26.20101867659205</v>
+        <v>12.7784227576969</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.444560359580507</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.55429110469345</v>
       </c>
       <c r="N20">
-        <v>13.03153111782228</v>
+        <v>12.60563944577071</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.14738134318625</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.9062121338786</v>
+        <v>17.26329724565964</v>
       </c>
       <c r="C21">
-        <v>23.03459729321418</v>
+        <v>7.874292619141282</v>
       </c>
       <c r="D21">
-        <v>5.685362686136415</v>
+        <v>5.765013620432502</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>52.2642353905126</v>
+        <v>22.32556788491789</v>
       </c>
       <c r="G21">
-        <v>2.023114477767519</v>
+        <v>2.081978312784346</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.735268214257372</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>28.0457747588537</v>
+        <v>13.47750676525655</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.611803285127872</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.00322490065891</v>
       </c>
       <c r="N21">
-        <v>12.78949928062067</v>
+        <v>12.34253990898574</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.32223869586448</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.2400277357979</v>
+        <v>17.90176361706678</v>
       </c>
       <c r="C22">
-        <v>24.0110249905146</v>
+        <v>7.863275497552329</v>
       </c>
       <c r="D22">
-        <v>5.861015572837842</v>
+        <v>5.867499744837983</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>54.04632843103383</v>
+        <v>22.7058653281999</v>
       </c>
       <c r="G22">
-        <v>2.011752671388157</v>
+        <v>2.078287696293356</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.01388017634083</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>29.22413623748454</v>
+        <v>13.9168580086535</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.722965275777836</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.29257561654775</v>
       </c>
       <c r="N22">
-        <v>12.63858980396004</v>
+        <v>12.17232515075655</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.44994814298638</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.5307171173494</v>
+        <v>17.56348672550157</v>
       </c>
       <c r="C23">
-        <v>23.4916426937187</v>
+        <v>7.869073089860572</v>
       </c>
       <c r="D23">
-        <v>5.767485074892802</v>
+        <v>5.813051003447609</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>53.0934864232813</v>
+        <v>22.50189444213929</v>
       </c>
       <c r="G23">
-        <v>2.017827288530123</v>
+        <v>2.080251874501811</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.864767278608374</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>28.59754084232293</v>
+        <v>13.68396936023281</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.663471807488895</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.13853645810497</v>
       </c>
       <c r="N23">
-        <v>12.71841130751765</v>
+        <v>12.26302255919878</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.38053268367942</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.78448388067507</v>
+        <v>16.22741604976634</v>
       </c>
       <c r="C24">
-        <v>21.48326520446967</v>
+        <v>7.892831731366283</v>
       </c>
       <c r="D24">
-        <v>5.408348123128212</v>
+        <v>5.601429676501962</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.51813125683485</v>
+        <v>21.7515693080469</v>
       </c>
       <c r="G24">
-        <v>2.040655773840704</v>
+        <v>2.087817030788039</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.308477877092958</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>26.17036894554525</v>
+        <v>12.7666998504773</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.441859587728211</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.54689028357619</v>
       </c>
       <c r="N24">
-        <v>13.03559835644288</v>
+        <v>12.60997103616784</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.14474428173534</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.6758997630142</v>
+        <v>14.6670020793135</v>
       </c>
       <c r="C25">
-        <v>19.2134107817914</v>
+        <v>7.922247884951346</v>
       </c>
       <c r="D25">
-        <v>5.010284386566899</v>
+        <v>5.362224546137977</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.71336021718858</v>
+        <v>20.99110840907592</v>
       </c>
       <c r="G25">
-        <v>2.065207362098288</v>
+        <v>2.096269265283389</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.723591213533902</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>23.41932950878959</v>
+        <v>11.70179080313248</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.211412667794613</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.89382212319996</v>
       </c>
       <c r="N25">
-        <v>13.40429888842455</v>
+        <v>12.99257250051915</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.94536968692245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.43267210520347</v>
+        <v>12.83529165041641</v>
       </c>
       <c r="C2">
-        <v>7.94711772926189</v>
+        <v>10.99820898269223</v>
       </c>
       <c r="D2">
-        <v>5.177368999699555</v>
+        <v>5.893046027424276</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.47445525862869</v>
+        <v>28.39980658462628</v>
       </c>
       <c r="G2">
-        <v>2.102766074834246</v>
+        <v>3.66181989566203</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.85280780018857</v>
+        <v>8.876563245456115</v>
       </c>
       <c r="L2">
-        <v>7.049780184676389</v>
+        <v>10.98729543644243</v>
       </c>
       <c r="M2">
-        <v>10.40338463786104</v>
+        <v>14.95039581915784</v>
       </c>
       <c r="N2">
-        <v>13.28246892107618</v>
+        <v>20.49586111256982</v>
       </c>
       <c r="O2">
-        <v>16.84261050489476</v>
+        <v>25.47995830748586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.60874214569692</v>
+        <v>12.62795911426045</v>
       </c>
       <c r="C3">
-        <v>7.965955488604324</v>
+        <v>11.00615508401322</v>
       </c>
       <c r="D3">
-        <v>5.047051011902819</v>
+        <v>5.84811313882842</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.15177008446547</v>
+        <v>28.42654197996445</v>
       </c>
       <c r="G3">
-        <v>2.107350014878539</v>
+        <v>3.663582518899014</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.23726140948716</v>
+        <v>8.71739488862125</v>
       </c>
       <c r="L3">
-        <v>6.945582669581644</v>
+        <v>10.99485122418799</v>
       </c>
       <c r="M3">
-        <v>10.06700022483779</v>
+        <v>14.9222440815434</v>
       </c>
       <c r="N3">
-        <v>13.4845072167099</v>
+        <v>20.55648069228294</v>
       </c>
       <c r="O3">
-        <v>16.79870270477869</v>
+        <v>25.54184346480676</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.07882173828445</v>
+        <v>12.50156152051299</v>
       </c>
       <c r="C4">
-        <v>7.978494685681309</v>
+        <v>11.01146488230132</v>
       </c>
       <c r="D4">
-        <v>4.96470531198112</v>
+        <v>5.819841674439283</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.96726584677511</v>
+        <v>28.44940960452554</v>
       </c>
       <c r="G4">
-        <v>2.110257075810131</v>
+        <v>3.664723063385949</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.839703902814781</v>
+        <v>8.619750823744052</v>
       </c>
       <c r="L4">
-        <v>6.88434204886977</v>
+        <v>11.0011411446872</v>
       </c>
       <c r="M4">
-        <v>9.859240346328844</v>
+        <v>14.90731542632379</v>
       </c>
       <c r="N4">
-        <v>13.61145224175173</v>
+        <v>20.5954531107046</v>
       </c>
       <c r="O4">
-        <v>16.78382843872555</v>
+        <v>25.58457462372456</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85696579066463</v>
+        <v>12.450348980082</v>
       </c>
       <c r="C5">
-        <v>7.983848382051292</v>
+        <v>11.01373738473826</v>
       </c>
       <c r="D5">
-        <v>4.93058874842287</v>
+        <v>5.808152944944826</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.89550939318797</v>
+        <v>28.46034968792664</v>
       </c>
       <c r="G5">
-        <v>2.111465436694024</v>
+        <v>3.665202546167804</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.672812394945138</v>
+        <v>8.580034816555314</v>
       </c>
       <c r="L5">
-        <v>6.860088792626853</v>
+        <v>11.00411994426996</v>
       </c>
       <c r="M5">
-        <v>9.774395121623542</v>
+        <v>14.90182929246391</v>
       </c>
       <c r="N5">
-        <v>13.66393067486067</v>
+        <v>20.61177643821007</v>
       </c>
       <c r="O5">
-        <v>16.78071332193063</v>
+        <v>25.6031767742559</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81977444841538</v>
+        <v>12.44186500935834</v>
       </c>
       <c r="C6">
-        <v>7.984752068844454</v>
+        <v>11.01412130922019</v>
       </c>
       <c r="D6">
-        <v>4.924890688320015</v>
+        <v>5.806202010913964</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.88380138555323</v>
+        <v>28.4622641614983</v>
       </c>
       <c r="G6">
-        <v>2.111667528942679</v>
+        <v>3.665283053185416</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.644806918666868</v>
+        <v>8.573446084718022</v>
       </c>
       <c r="L6">
-        <v>6.8561043973629</v>
+        <v>11.00463968703284</v>
       </c>
       <c r="M6">
-        <v>9.760299497507376</v>
+        <v>14.90095453915497</v>
       </c>
       <c r="N6">
-        <v>13.67269038177155</v>
+        <v>20.61451363198805</v>
       </c>
       <c r="O6">
-        <v>16.78037124886524</v>
+        <v>25.60633740772278</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.07585343661803</v>
+        <v>12.50086956407002</v>
       </c>
       <c r="C7">
-        <v>7.978565900968269</v>
+        <v>11.01149508937614</v>
       </c>
       <c r="D7">
-        <v>4.964247436020861</v>
+        <v>5.819684710918913</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.96628422675075</v>
+        <v>28.44955058347197</v>
       </c>
       <c r="G7">
-        <v>2.110273275604169</v>
+        <v>3.664729470271689</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.837472845331217</v>
+        <v>8.619214826424896</v>
       </c>
       <c r="L7">
-        <v>6.884012097373375</v>
+        <v>11.00117963440681</v>
       </c>
       <c r="M7">
-        <v>9.858096657021528</v>
+        <v>14.90723901343711</v>
       </c>
       <c r="N7">
-        <v>13.61215693264348</v>
+        <v>20.59567146251066</v>
       </c>
       <c r="O7">
-        <v>16.78377462208869</v>
+        <v>25.58482068715545</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.15363590351566</v>
+        <v>12.76365608198011</v>
       </c>
       <c r="C8">
-        <v>7.953410629746989</v>
+        <v>11.00085959712187</v>
       </c>
       <c r="D8">
-        <v>5.132933841680363</v>
+        <v>5.877697043885567</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.36037118999161</v>
+        <v>28.40768538973194</v>
       </c>
       <c r="G8">
-        <v>2.104327694594712</v>
+        <v>3.662415577865996</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.64466119152471</v>
+        <v>8.821695777853419</v>
       </c>
       <c r="L8">
-        <v>7.013293978087924</v>
+        <v>10.98955843446499</v>
       </c>
       <c r="M8">
-        <v>10.28772448683757</v>
+        <v>14.94020299607633</v>
       </c>
       <c r="N8">
-        <v>13.35154360574133</v>
+        <v>20.51639992880107</v>
       </c>
       <c r="O8">
-        <v>16.8249078402381</v>
+        <v>25.50031308222642</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.20875054410556</v>
+        <v>13.28320702942388</v>
       </c>
       <c r="C9">
-        <v>7.911837325302243</v>
+        <v>10.98340571948064</v>
       </c>
       <c r="D9">
-        <v>5.444206544088985</v>
+        <v>5.985883682265392</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.24062536084548</v>
+        <v>28.37680367300908</v>
       </c>
       <c r="G9">
-        <v>2.093381074714835</v>
+        <v>3.658338468974407</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.07060524153496</v>
+        <v>9.217156770934967</v>
       </c>
       <c r="L9">
-        <v>7.287833497594395</v>
+        <v>10.97983957227181</v>
       </c>
       <c r="M9">
-        <v>11.1155351321249</v>
+        <v>15.02331555328651</v>
       </c>
       <c r="N9">
-        <v>12.86248481029955</v>
+        <v>20.37478958255547</v>
       </c>
       <c r="O9">
-        <v>17.00546513145168</v>
+        <v>25.37221026009399</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.59934060378889</v>
+        <v>13.66360994203471</v>
       </c>
       <c r="C10">
-        <v>7.886082414715275</v>
+        <v>10.97263445688907</v>
       </c>
       <c r="D10">
-        <v>5.659757760150972</v>
+        <v>6.061761214755014</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.9514411191046</v>
+        <v>28.38533022287313</v>
       </c>
       <c r="G10">
-        <v>2.085741785558606</v>
+        <v>3.655620835104691</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.02159713714541</v>
+        <v>9.503759844363694</v>
       </c>
       <c r="L10">
-        <v>7.501363867440223</v>
+        <v>10.98062655280868</v>
       </c>
       <c r="M10">
-        <v>11.70877951826436</v>
+        <v>15.09530823153653</v>
       </c>
       <c r="N10">
-        <v>12.51519183013774</v>
+        <v>20.27910290658143</v>
       </c>
       <c r="O10">
-        <v>17.20427308680007</v>
+        <v>25.30109941454344</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.19888302472868</v>
+        <v>13.83558869354145</v>
       </c>
       <c r="C11">
-        <v>7.875421687332762</v>
+        <v>10.96817527667377</v>
       </c>
       <c r="D11">
-        <v>5.754741315609959</v>
+        <v>6.095453619903076</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.28831015438947</v>
+        <v>28.39597107060909</v>
       </c>
       <c r="G11">
-        <v>2.082346743809924</v>
+        <v>3.65444422857579</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.43323053044505</v>
+        <v>9.632694616097789</v>
       </c>
       <c r="L11">
-        <v>7.600855907181877</v>
+        <v>10.98269510550026</v>
       </c>
       <c r="M11">
-        <v>11.97436367727057</v>
+        <v>15.1303542828751</v>
       </c>
       <c r="N11">
-        <v>12.35948418058024</v>
+        <v>20.23736886370936</v>
       </c>
       <c r="O11">
-        <v>17.31013375736898</v>
+        <v>25.27375790653196</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.42121910434776</v>
+        <v>13.90049588683952</v>
       </c>
       <c r="C12">
-        <v>7.87153805961179</v>
+        <v>10.96654970032439</v>
       </c>
       <c r="D12">
-        <v>5.790251214946109</v>
+        <v>6.108089874609425</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.4177770595771</v>
+        <v>28.40097015147334</v>
       </c>
       <c r="G12">
-        <v>2.081072018494709</v>
+        <v>3.654007210990479</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.58609663584292</v>
+        <v>9.681264963805575</v>
       </c>
       <c r="L12">
-        <v>7.638851691490236</v>
+        <v>10.98372325304396</v>
       </c>
       <c r="M12">
-        <v>12.07424385646331</v>
+        <v>15.14394820226314</v>
       </c>
       <c r="N12">
-        <v>12.30082127301311</v>
+        <v>20.22182197789605</v>
       </c>
       <c r="O12">
-        <v>17.35251901622615</v>
+        <v>25.26412520747629</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.37354309879749</v>
+        <v>13.88652761863512</v>
       </c>
       <c r="C13">
-        <v>7.872367620073502</v>
+        <v>10.96689700018179</v>
       </c>
       <c r="D13">
-        <v>5.782624151074093</v>
+        <v>6.105373930390054</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.38981011865454</v>
+        <v>28.39985043783039</v>
       </c>
       <c r="G13">
-        <v>2.081346078673617</v>
+        <v>3.654100951477651</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.55330791630948</v>
+        <v>9.670816510197739</v>
       </c>
       <c r="L13">
-        <v>7.630654659464428</v>
+        <v>10.98349095360541</v>
       </c>
       <c r="M13">
-        <v>12.05276466836763</v>
+        <v>15.1410062771416</v>
       </c>
       <c r="N13">
-        <v>12.31344247982351</v>
+        <v>20.22515887050544</v>
       </c>
       <c r="O13">
-        <v>17.34328713946601</v>
+        <v>25.26616770507851</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.21726857894186</v>
+        <v>13.84093336080884</v>
       </c>
       <c r="C14">
-        <v>7.875099095538533</v>
+        <v>10.96804027858483</v>
       </c>
       <c r="D14">
-        <v>5.757672010190511</v>
+        <v>6.096495684975631</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.29892359576889</v>
+        <v>28.39636293384613</v>
       </c>
       <c r="G14">
-        <v>2.082241656531285</v>
+        <v>3.654408104000358</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.44586719552779</v>
+        <v>9.636695888193</v>
       </c>
       <c r="L14">
-        <v>7.603975526839251</v>
+        <v>10.98277479200241</v>
       </c>
       <c r="M14">
-        <v>11.98259511281483</v>
+        <v>15.13146623861442</v>
       </c>
       <c r="N14">
-        <v>12.35465209338551</v>
+        <v>20.23608467001428</v>
       </c>
       <c r="O14">
-        <v>17.31357431214305</v>
+        <v>25.27295096534396</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.1209357898757</v>
+        <v>13.81297539835042</v>
       </c>
       <c r="C15">
-        <v>7.87679222579864</v>
+        <v>10.96874876591421</v>
       </c>
       <c r="D15">
-        <v>5.742327956512576</v>
+        <v>6.0910414628561</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.2434994249575</v>
+        <v>28.39435291549347</v>
       </c>
       <c r="G15">
-        <v>2.0827916248556</v>
+        <v>3.654597354446063</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.37966487886084</v>
+        <v>9.615761530343233</v>
       </c>
       <c r="L15">
-        <v>7.587674965933858</v>
+        <v>10.98236797066134</v>
       </c>
       <c r="M15">
-        <v>11.93952224511376</v>
+        <v>15.12566449233731</v>
       </c>
       <c r="N15">
-        <v>12.37993242950482</v>
+        <v>20.24281045910546</v>
       </c>
       <c r="O15">
-        <v>17.29567595778199</v>
+        <v>25.2771998194024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.55949874674162</v>
+        <v>13.65234371359748</v>
       </c>
       <c r="C16">
-        <v>7.886800486917076</v>
+        <v>10.97293471271098</v>
       </c>
       <c r="D16">
-        <v>5.653487088889487</v>
+        <v>6.059542420850906</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.9296943547156</v>
+        <v>28.38477067079461</v>
       </c>
       <c r="G16">
-        <v>2.085965219653505</v>
+        <v>3.655698926075011</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.99427417258397</v>
+        <v>9.495300553119595</v>
       </c>
       <c r="L16">
-        <v>7.494907641259677</v>
+        <v>10.98052569364646</v>
       </c>
       <c r="M16">
-        <v>11.69133011735706</v>
+        <v>15.09306346689265</v>
       </c>
       <c r="N16">
-        <v>12.52541122224725</v>
+        <v>20.28186633373413</v>
       </c>
       <c r="O16">
-        <v>17.19767213212261</v>
+        <v>25.30298708539551</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.20664984081001</v>
+        <v>13.5534815138575</v>
       </c>
       <c r="C17">
-        <v>7.893211605915204</v>
+        <v>10.97561528044916</v>
       </c>
       <c r="D17">
-        <v>5.598186945458696</v>
+        <v>6.040004875917466</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.74061735311447</v>
+        <v>28.38062248853879</v>
       </c>
       <c r="G17">
-        <v>2.087932207803859</v>
+        <v>3.656389955283682</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.75247881555072</v>
+        <v>9.42099798480651</v>
       </c>
       <c r="L17">
-        <v>7.43858795965017</v>
+        <v>10.97983285365702</v>
       </c>
       <c r="M17">
-        <v>11.53791821281028</v>
+        <v>15.07364672727705</v>
       </c>
       <c r="N17">
-        <v>12.61522214511416</v>
+        <v>20.30628460614998</v>
       </c>
       <c r="O17">
-        <v>17.14155828198811</v>
+        <v>25.32008989846703</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.0005868840605</v>
+        <v>13.49652168237793</v>
       </c>
       <c r="C18">
-        <v>7.896998335936423</v>
+        <v>10.97719857611629</v>
       </c>
       <c r="D18">
-        <v>5.566091508480824</v>
+        <v>6.028689994603408</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.6331399963283</v>
+        <v>28.37887325626193</v>
       </c>
       <c r="G18">
-        <v>2.089071146572106</v>
+        <v>3.656793034804743</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.61142921143017</v>
+        <v>9.378128012237614</v>
       </c>
       <c r="L18">
-        <v>7.406417202998869</v>
+        <v>10.97959543156632</v>
       </c>
       <c r="M18">
-        <v>11.44928012279479</v>
+        <v>15.06269533367324</v>
       </c>
       <c r="N18">
-        <v>12.66709512123209</v>
+        <v>20.32049830591715</v>
       </c>
       <c r="O18">
-        <v>17.1107300862049</v>
+        <v>25.33039823928897</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.93028112678472</v>
+        <v>13.47722140439854</v>
       </c>
       <c r="C19">
-        <v>7.898297453534154</v>
+        <v>10.97774179206947</v>
       </c>
       <c r="D19">
-        <v>5.555175572429049</v>
+        <v>6.024845791568826</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.59697020435338</v>
+        <v>28.37839042015349</v>
       </c>
       <c r="G19">
-        <v>2.089458091606247</v>
+        <v>3.656930476724813</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.5633328998625</v>
+        <v>9.363591588550326</v>
       </c>
       <c r="L19">
-        <v>7.395563584030603</v>
+        <v>10.97954274326435</v>
       </c>
       <c r="M19">
-        <v>11.4192025986559</v>
+        <v>15.05902480244204</v>
       </c>
       <c r="N19">
-        <v>12.68469634463919</v>
+        <v>20.32533987324908</v>
       </c>
       <c r="O19">
-        <v>17.10053820277595</v>
+        <v>25.3339693742824</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.24453306898592</v>
+        <v>13.56401606395508</v>
       </c>
       <c r="C20">
-        <v>7.892518851013432</v>
+        <v>10.97532563651904</v>
       </c>
       <c r="D20">
-        <v>5.604103699687195</v>
+        <v>6.04209271911065</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.76061329280658</v>
+        <v>28.38099819184346</v>
       </c>
       <c r="G20">
-        <v>2.087722038488893</v>
+        <v>3.656315812922482</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.7784227576969</v>
+        <v>9.428921743837545</v>
       </c>
       <c r="L20">
-        <v>7.444560359580507</v>
+        <v>10.97988994427183</v>
       </c>
       <c r="M20">
-        <v>11.55429110469345</v>
+        <v>15.0756913077235</v>
       </c>
       <c r="N20">
-        <v>12.60563944577071</v>
+        <v>20.3036677613259</v>
       </c>
       <c r="O20">
-        <v>17.14738134318625</v>
+        <v>25.31822049451631</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.26329724565964</v>
+        <v>13.85433189553804</v>
       </c>
       <c r="C21">
-        <v>7.874292619141282</v>
+        <v>10.96770276253821</v>
       </c>
       <c r="D21">
-        <v>5.765013620432502</v>
+        <v>6.099106790248362</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.32556788491789</v>
+        <v>28.39736100881258</v>
       </c>
       <c r="G21">
-        <v>2.081978312784346</v>
+        <v>3.6543176544718</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.47750676525655</v>
+        <v>9.646725210504867</v>
       </c>
       <c r="L21">
-        <v>7.611803285127872</v>
+        <v>10.98297851107284</v>
       </c>
       <c r="M21">
-        <v>12.00322490065891</v>
+        <v>15.13425968133765</v>
       </c>
       <c r="N21">
-        <v>12.34253990898574</v>
+        <v>20.23286853485882</v>
       </c>
       <c r="O21">
-        <v>17.32223869586448</v>
+        <v>25.27093898496999</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.90176361706678</v>
+        <v>14.0427750913138</v>
       </c>
       <c r="C22">
-        <v>7.863275497552329</v>
+        <v>10.9630879288095</v>
       </c>
       <c r="D22">
-        <v>5.867499744837983</v>
+        <v>6.135654080784667</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.7058653281999</v>
+        <v>28.41370493485157</v>
       </c>
       <c r="G22">
-        <v>2.078287696293356</v>
+        <v>3.653061488268295</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.9168580086535</v>
+        <v>9.787569150856882</v>
       </c>
       <c r="L22">
-        <v>7.722965275777836</v>
+        <v>10.98642351890149</v>
       </c>
       <c r="M22">
-        <v>12.29257561654775</v>
+        <v>15.17441496247104</v>
       </c>
       <c r="N22">
-        <v>12.17232515075655</v>
+        <v>20.188093985975</v>
       </c>
       <c r="O22">
-        <v>17.44994814298638</v>
+        <v>25.24424025320274</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.56348672550157</v>
+        <v>13.94233827245193</v>
       </c>
       <c r="C23">
-        <v>7.869073089860572</v>
+        <v>10.96551747519228</v>
       </c>
       <c r="D23">
-        <v>5.813051003447609</v>
+        <v>6.116214715222499</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.50189444213929</v>
+        <v>28.4044660197495</v>
       </c>
       <c r="G23">
-        <v>2.080251874501811</v>
+        <v>3.653727389546428</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.68396936023281</v>
+        <v>9.712550537932781</v>
       </c>
       <c r="L23">
-        <v>7.663471807488895</v>
+        <v>10.98445474164196</v>
       </c>
       <c r="M23">
-        <v>12.13853645810497</v>
+        <v>15.15281410221203</v>
       </c>
       <c r="N23">
-        <v>12.26302255919878</v>
+        <v>20.21185441460043</v>
       </c>
       <c r="O23">
-        <v>17.38053268367942</v>
+        <v>25.25810508732794</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.22741604976634</v>
+        <v>13.55925377094883</v>
       </c>
       <c r="C24">
-        <v>7.892831731366283</v>
+        <v>10.97545645306254</v>
       </c>
       <c r="D24">
-        <v>5.601429676501962</v>
+        <v>6.041149061843375</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.7515693080469</v>
+        <v>28.38082635628668</v>
       </c>
       <c r="G24">
-        <v>2.087817030788039</v>
+        <v>3.656349314621687</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.7666998504773</v>
+        <v>9.425339883575379</v>
       </c>
       <c r="L24">
-        <v>7.441859587728211</v>
+        <v>10.97986363233396</v>
       </c>
       <c r="M24">
-        <v>11.54689028357619</v>
+        <v>15.07476629339062</v>
       </c>
       <c r="N24">
-        <v>12.60997103616784</v>
+        <v>20.30485029069323</v>
       </c>
       <c r="O24">
-        <v>17.14474428173534</v>
+        <v>25.31906417031005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.6670020793135</v>
+        <v>13.14260935267284</v>
       </c>
       <c r="C25">
-        <v>7.922247884951346</v>
+        <v>10.98776549947546</v>
       </c>
       <c r="D25">
-        <v>5.362224546137977</v>
+        <v>5.95723492638852</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.99110840907592</v>
+        <v>28.37967286590186</v>
       </c>
       <c r="G25">
-        <v>2.096269265283389</v>
+        <v>3.65939244110431</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.70179080313248</v>
+        <v>9.110658388451332</v>
       </c>
       <c r="L25">
-        <v>7.211412667794613</v>
+        <v>10.98107326017896</v>
       </c>
       <c r="M25">
-        <v>10.89382212319996</v>
+        <v>14.9988864709818</v>
       </c>
       <c r="N25">
-        <v>12.99257250051915</v>
+        <v>20.41162582496985</v>
       </c>
       <c r="O25">
-        <v>16.94536968692245</v>
+        <v>25.40283010705001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.83529165041641</v>
+        <v>13.43267210520349</v>
       </c>
       <c r="C2">
-        <v>10.99820898269223</v>
+        <v>7.947117729262421</v>
       </c>
       <c r="D2">
-        <v>5.893046027424276</v>
+        <v>5.177368999699424</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.39980658462628</v>
+        <v>20.47445525862856</v>
       </c>
       <c r="G2">
-        <v>3.66181989566203</v>
+        <v>2.102766074834244</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.876563245456115</v>
+        <v>10.85280780018861</v>
       </c>
       <c r="L2">
-        <v>10.98729543644243</v>
+        <v>7.049780184676403</v>
       </c>
       <c r="M2">
-        <v>14.95039581915784</v>
+        <v>10.40338463786105</v>
       </c>
       <c r="N2">
-        <v>20.49586111256982</v>
+        <v>13.28246892107611</v>
       </c>
       <c r="O2">
-        <v>25.47995830748586</v>
+        <v>16.84261050489461</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.62795911426045</v>
+        <v>12.60874214569692</v>
       </c>
       <c r="C3">
-        <v>11.00615508401322</v>
+        <v>7.965955488604191</v>
       </c>
       <c r="D3">
-        <v>5.84811313882842</v>
+        <v>5.047051011902822</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.42654197996445</v>
+        <v>20.15177008446552</v>
       </c>
       <c r="G3">
-        <v>3.663582518899014</v>
+        <v>2.107350014878538</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.71739488862125</v>
+        <v>10.23726140948715</v>
       </c>
       <c r="L3">
-        <v>10.99485122418799</v>
+        <v>6.945582669581666</v>
       </c>
       <c r="M3">
-        <v>14.9222440815434</v>
+        <v>10.06700022483778</v>
       </c>
       <c r="N3">
-        <v>20.55648069228294</v>
+        <v>13.48450721670997</v>
       </c>
       <c r="O3">
-        <v>25.54184346480676</v>
+        <v>16.79870270477873</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.50156152051299</v>
+        <v>12.07882173828449</v>
       </c>
       <c r="C4">
-        <v>11.01146488230132</v>
+        <v>7.978494685681705</v>
       </c>
       <c r="D4">
-        <v>5.819841674439283</v>
+        <v>4.964705311980989</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.44940960452554</v>
+        <v>19.96726584677525</v>
       </c>
       <c r="G4">
-        <v>3.664723063385949</v>
+        <v>2.110257075809998</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.619750823744052</v>
+        <v>9.83970390281474</v>
       </c>
       <c r="L4">
-        <v>11.0011411446872</v>
+        <v>6.884342048869711</v>
       </c>
       <c r="M4">
-        <v>14.90731542632379</v>
+        <v>9.859240346328862</v>
       </c>
       <c r="N4">
-        <v>20.5954531107046</v>
+        <v>13.61145224175176</v>
       </c>
       <c r="O4">
-        <v>25.58457462372456</v>
+        <v>16.78382843872563</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.450348980082</v>
+        <v>11.85696579066461</v>
       </c>
       <c r="C5">
-        <v>11.01373738473826</v>
+        <v>7.983848382051292</v>
       </c>
       <c r="D5">
-        <v>5.808152944944826</v>
+        <v>4.930588748422927</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.46034968792664</v>
+        <v>19.89550939318809</v>
       </c>
       <c r="G5">
-        <v>3.665202546167804</v>
+        <v>2.111465436694159</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.580034816555314</v>
+        <v>9.672812394945115</v>
       </c>
       <c r="L5">
-        <v>11.00411994426996</v>
+        <v>6.86008879262683</v>
       </c>
       <c r="M5">
-        <v>14.90182929246391</v>
+        <v>9.774395121623551</v>
       </c>
       <c r="N5">
-        <v>20.61177643821007</v>
+        <v>13.66393067486077</v>
       </c>
       <c r="O5">
-        <v>25.6031767742559</v>
+        <v>16.78071332193071</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.44186500935834</v>
+        <v>11.81977444841541</v>
       </c>
       <c r="C6">
-        <v>11.01412130922019</v>
+        <v>7.984752068844585</v>
       </c>
       <c r="D6">
-        <v>5.806202010913964</v>
+        <v>4.924890688320178</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.4622641614983</v>
+        <v>19.88380138555316</v>
       </c>
       <c r="G6">
-        <v>3.665283053185416</v>
+        <v>2.111667528942546</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.573446084718022</v>
+        <v>9.644806918666838</v>
       </c>
       <c r="L6">
-        <v>11.00463968703284</v>
+        <v>6.856104397362849</v>
       </c>
       <c r="M6">
-        <v>14.90095453915497</v>
+        <v>9.7602994975074</v>
       </c>
       <c r="N6">
-        <v>20.61451363198805</v>
+        <v>13.67269038177152</v>
       </c>
       <c r="O6">
-        <v>25.60633740772278</v>
+        <v>16.78037124886521</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.50086956407002</v>
+        <v>12.07585343661802</v>
       </c>
       <c r="C7">
-        <v>11.01149508937614</v>
+        <v>7.97856590096827</v>
       </c>
       <c r="D7">
-        <v>5.819684710918913</v>
+        <v>4.964247436020699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.44955058347197</v>
+        <v>19.96628422675076</v>
       </c>
       <c r="G7">
-        <v>3.664729470271689</v>
+        <v>2.11027327560417</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.619214826424896</v>
+        <v>9.837472845331249</v>
       </c>
       <c r="L7">
-        <v>11.00117963440681</v>
+        <v>6.884012097373411</v>
       </c>
       <c r="M7">
-        <v>14.90723901343711</v>
+        <v>9.858096657021511</v>
       </c>
       <c r="N7">
-        <v>20.59567146251066</v>
+        <v>13.61215693264348</v>
       </c>
       <c r="O7">
-        <v>25.58482068715545</v>
+        <v>16.78377462208864</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.76365608198011</v>
+        <v>13.15363590351565</v>
       </c>
       <c r="C8">
-        <v>11.00085959712187</v>
+        <v>7.953410629746862</v>
       </c>
       <c r="D8">
-        <v>5.877697043885567</v>
+        <v>5.132933841680297</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.40768538973194</v>
+        <v>20.36037118999181</v>
       </c>
       <c r="G8">
-        <v>3.662415577865996</v>
+        <v>2.104327694594844</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.821695777853419</v>
+        <v>10.64466119152471</v>
       </c>
       <c r="L8">
-        <v>10.98955843446499</v>
+        <v>7.013293978087963</v>
       </c>
       <c r="M8">
-        <v>14.94020299607633</v>
+        <v>10.28772448683759</v>
       </c>
       <c r="N8">
-        <v>20.51639992880107</v>
+        <v>13.35154360574143</v>
       </c>
       <c r="O8">
-        <v>25.50031308222642</v>
+        <v>16.82490784023825</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.28320702942388</v>
+        <v>15.20875054410559</v>
       </c>
       <c r="C9">
-        <v>10.98340571948064</v>
+        <v>7.911837325302644</v>
       </c>
       <c r="D9">
-        <v>5.985883682265392</v>
+        <v>5.44420654408899</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.37680367300908</v>
+        <v>21.24062536084538</v>
       </c>
       <c r="G9">
-        <v>3.658338468974407</v>
+        <v>2.09338107471497</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.217156770934967</v>
+        <v>12.07060524153501</v>
       </c>
       <c r="L9">
-        <v>10.97983957227181</v>
+        <v>7.287833497594478</v>
       </c>
       <c r="M9">
-        <v>15.02331555328651</v>
+        <v>11.11553513212493</v>
       </c>
       <c r="N9">
-        <v>20.37478958255547</v>
+        <v>12.86248481029959</v>
       </c>
       <c r="O9">
-        <v>25.37221026009399</v>
+        <v>17.00546513145163</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.66360994203471</v>
+        <v>16.59934060378892</v>
       </c>
       <c r="C10">
-        <v>10.97263445688907</v>
+        <v>7.886082414715675</v>
       </c>
       <c r="D10">
-        <v>6.061761214755014</v>
+        <v>5.659757760151036</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.38533022287313</v>
+        <v>21.95144111910442</v>
       </c>
       <c r="G10">
-        <v>3.655620835104691</v>
+        <v>2.085741785558739</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.503759844363694</v>
+        <v>13.02159713714547</v>
       </c>
       <c r="L10">
-        <v>10.98062655280868</v>
+        <v>7.501363867440182</v>
       </c>
       <c r="M10">
-        <v>15.09530823153653</v>
+        <v>11.70877951826435</v>
       </c>
       <c r="N10">
-        <v>20.27910290658143</v>
+        <v>12.51519183013761</v>
       </c>
       <c r="O10">
-        <v>25.30109941454344</v>
+        <v>17.2042730867999</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.83558869354145</v>
+        <v>17.19888302472858</v>
       </c>
       <c r="C11">
-        <v>10.96817527667377</v>
+        <v>7.875421687333022</v>
       </c>
       <c r="D11">
-        <v>6.095453619903076</v>
+        <v>5.754741315610072</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.39597107060909</v>
+        <v>22.28831015438956</v>
       </c>
       <c r="G11">
-        <v>3.65444422857579</v>
+        <v>2.082346743809656</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.632694616097789</v>
+        <v>13.43323053044498</v>
       </c>
       <c r="L11">
-        <v>10.98269510550026</v>
+        <v>7.60085590718185</v>
       </c>
       <c r="M11">
-        <v>15.1303542828751</v>
+        <v>11.97436367727059</v>
       </c>
       <c r="N11">
-        <v>20.23736886370936</v>
+        <v>12.35948418058034</v>
       </c>
       <c r="O11">
-        <v>25.27375790653196</v>
+        <v>17.31013375736912</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.90049588683952</v>
+        <v>17.42121910434772</v>
       </c>
       <c r="C12">
-        <v>10.96654970032439</v>
+        <v>7.871538059612308</v>
       </c>
       <c r="D12">
-        <v>6.108089874609425</v>
+        <v>5.790251214946104</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.40097015147334</v>
+        <v>22.41777705957712</v>
       </c>
       <c r="G12">
-        <v>3.654007210990479</v>
+        <v>2.081072018494843</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.681264963805575</v>
+        <v>13.58609663584295</v>
       </c>
       <c r="L12">
-        <v>10.98372325304396</v>
+        <v>7.638851691490204</v>
       </c>
       <c r="M12">
-        <v>15.14394820226314</v>
+        <v>12.0742438564633</v>
       </c>
       <c r="N12">
-        <v>20.22182197789605</v>
+        <v>12.30082127301315</v>
       </c>
       <c r="O12">
-        <v>25.26412520747629</v>
+        <v>17.35251901622617</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.88652761863512</v>
+        <v>17.37354309879749</v>
       </c>
       <c r="C13">
-        <v>10.96689700018179</v>
+        <v>7.872367620073494</v>
       </c>
       <c r="D13">
-        <v>6.105373930390054</v>
+        <v>5.782624151074257</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.39985043783039</v>
+        <v>22.38981011865449</v>
       </c>
       <c r="G13">
-        <v>3.654100951477651</v>
+        <v>2.081346078673483</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.670816510197739</v>
+        <v>13.55330791630945</v>
       </c>
       <c r="L13">
-        <v>10.98349095360541</v>
+        <v>7.63065465946441</v>
       </c>
       <c r="M13">
-        <v>15.1410062771416</v>
+        <v>12.05276466836761</v>
       </c>
       <c r="N13">
-        <v>20.22515887050544</v>
+        <v>12.31344247982348</v>
       </c>
       <c r="O13">
-        <v>25.26616770507851</v>
+        <v>17.34328713946597</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.84093336080884</v>
+        <v>17.21726857894184</v>
       </c>
       <c r="C14">
-        <v>10.96804027858483</v>
+        <v>7.875099095538794</v>
       </c>
       <c r="D14">
-        <v>6.096495684975631</v>
+        <v>5.757672010190399</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.39636293384613</v>
+        <v>22.29892359576891</v>
       </c>
       <c r="G14">
-        <v>3.654408104000358</v>
+        <v>2.082241656531552</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.636695888193</v>
+        <v>13.44586719552779</v>
       </c>
       <c r="L14">
-        <v>10.98277479200241</v>
+        <v>7.603975526839283</v>
       </c>
       <c r="M14">
-        <v>15.13146623861442</v>
+        <v>11.98259511281486</v>
       </c>
       <c r="N14">
-        <v>20.23608467001428</v>
+        <v>12.35465209338551</v>
       </c>
       <c r="O14">
-        <v>25.27295096534396</v>
+        <v>17.31357431214305</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.81297539835042</v>
+        <v>17.12093578987574</v>
       </c>
       <c r="C15">
-        <v>10.96874876591421</v>
+        <v>7.876792225798901</v>
       </c>
       <c r="D15">
-        <v>6.0910414628561</v>
+        <v>5.742327956512566</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.39435291549347</v>
+        <v>22.24349942495739</v>
       </c>
       <c r="G15">
-        <v>3.654597354446063</v>
+        <v>2.0827916248556</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.615761530343233</v>
+        <v>13.37966487886088</v>
       </c>
       <c r="L15">
-        <v>10.98236797066134</v>
+        <v>7.587674965933894</v>
       </c>
       <c r="M15">
-        <v>15.12566449233731</v>
+        <v>11.93952224511375</v>
       </c>
       <c r="N15">
-        <v>20.24281045910546</v>
+        <v>12.37993242950479</v>
       </c>
       <c r="O15">
-        <v>25.2771998194024</v>
+        <v>17.29567595778192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.65234371359748</v>
+        <v>16.55949874674166</v>
       </c>
       <c r="C16">
-        <v>10.97293471271098</v>
+        <v>7.88680048691694</v>
       </c>
       <c r="D16">
-        <v>6.059542420850906</v>
+        <v>5.653487088889549</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.38477067079461</v>
+        <v>21.92969435471545</v>
       </c>
       <c r="G16">
-        <v>3.655698926075011</v>
+        <v>2.085965219653506</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.495300553119595</v>
+        <v>12.99427417258402</v>
       </c>
       <c r="L16">
-        <v>10.98052569364646</v>
+        <v>7.494907641259626</v>
       </c>
       <c r="M16">
-        <v>15.09306346689265</v>
+        <v>11.69133011735702</v>
       </c>
       <c r="N16">
-        <v>20.28186633373413</v>
+        <v>12.52541122224715</v>
       </c>
       <c r="O16">
-        <v>25.30298708539551</v>
+        <v>17.19767213212245</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.5534815138575</v>
+        <v>16.20664984081008</v>
       </c>
       <c r="C17">
-        <v>10.97561528044916</v>
+        <v>7.893211605915468</v>
       </c>
       <c r="D17">
-        <v>6.040004875917466</v>
+        <v>5.598186945458597</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.38062248853879</v>
+        <v>21.7406173531144</v>
       </c>
       <c r="G17">
-        <v>3.656389955283682</v>
+        <v>2.087932207803859</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.42099798480651</v>
+        <v>12.75247881555084</v>
       </c>
       <c r="L17">
-        <v>10.97983285365702</v>
+        <v>7.438587959650156</v>
       </c>
       <c r="M17">
-        <v>15.07364672727705</v>
+        <v>11.53791821281026</v>
       </c>
       <c r="N17">
-        <v>20.30628460614998</v>
+        <v>12.6152221451141</v>
       </c>
       <c r="O17">
-        <v>25.32008989846703</v>
+        <v>17.141558281988</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.49652168237793</v>
+        <v>16.00058688406056</v>
       </c>
       <c r="C18">
-        <v>10.97719857611629</v>
+        <v>7.896998335936031</v>
       </c>
       <c r="D18">
-        <v>6.028689994603408</v>
+        <v>5.566091508480662</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.37887325626193</v>
+        <v>21.63313999632831</v>
       </c>
       <c r="G18">
-        <v>3.656793034804743</v>
+        <v>2.089071146572104</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.378128012237614</v>
+        <v>12.61142921143019</v>
       </c>
       <c r="L18">
-        <v>10.97959543156632</v>
+        <v>7.406417202998883</v>
       </c>
       <c r="M18">
-        <v>15.06269533367324</v>
+        <v>11.44928012279476</v>
       </c>
       <c r="N18">
-        <v>20.32049830591715</v>
+        <v>12.66709512123203</v>
       </c>
       <c r="O18">
-        <v>25.33039823928897</v>
+        <v>17.11073008620484</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.47722140439854</v>
+        <v>15.93028112678472</v>
       </c>
       <c r="C19">
-        <v>10.97774179206947</v>
+        <v>7.898297453534287</v>
       </c>
       <c r="D19">
-        <v>6.024845791568826</v>
+        <v>5.555175572428872</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.37839042015349</v>
+        <v>21.59697020435324</v>
       </c>
       <c r="G19">
-        <v>3.656930476724813</v>
+        <v>2.089458091606113</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.363591588550326</v>
+        <v>12.56333289986252</v>
       </c>
       <c r="L19">
-        <v>10.97954274326435</v>
+        <v>7.395563584030556</v>
       </c>
       <c r="M19">
-        <v>15.05902480244204</v>
+        <v>11.41920259865587</v>
       </c>
       <c r="N19">
-        <v>20.32533987324908</v>
+        <v>12.68469634463912</v>
       </c>
       <c r="O19">
-        <v>25.3339693742824</v>
+        <v>17.10053820277581</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.56401606395508</v>
+        <v>16.24453306898594</v>
       </c>
       <c r="C20">
-        <v>10.97532563651904</v>
+        <v>7.892518851013561</v>
       </c>
       <c r="D20">
-        <v>6.04209271911065</v>
+        <v>5.604103699687206</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.38099819184346</v>
+        <v>21.76061329280646</v>
       </c>
       <c r="G20">
-        <v>3.656315812922482</v>
+        <v>2.087722038489027</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.428921743837545</v>
+        <v>12.77842275769691</v>
       </c>
       <c r="L20">
-        <v>10.97988994427183</v>
+        <v>7.444560359580585</v>
       </c>
       <c r="M20">
-        <v>15.0756913077235</v>
+        <v>11.55429110469347</v>
       </c>
       <c r="N20">
-        <v>20.3036677613259</v>
+        <v>12.60563944577064</v>
       </c>
       <c r="O20">
-        <v>25.31822049451631</v>
+        <v>17.14738134318615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.85433189553804</v>
+        <v>17.26329724565971</v>
       </c>
       <c r="C21">
-        <v>10.96770276253821</v>
+        <v>7.874292619141013</v>
       </c>
       <c r="D21">
-        <v>6.099106790248362</v>
+        <v>5.765013620432619</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.39736100881258</v>
+        <v>22.32556788491785</v>
       </c>
       <c r="G21">
-        <v>3.6543176544718</v>
+        <v>2.081978312784212</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.646725210504867</v>
+        <v>13.47750676525658</v>
       </c>
       <c r="L21">
-        <v>10.98297851107284</v>
+        <v>7.611803285127911</v>
       </c>
       <c r="M21">
-        <v>15.13425968133765</v>
+        <v>12.0032249006589</v>
       </c>
       <c r="N21">
-        <v>20.23286853485882</v>
+        <v>12.34253990898577</v>
       </c>
       <c r="O21">
-        <v>25.27093898496999</v>
+        <v>17.32223869586446</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.0427750913138</v>
+        <v>17.90176361706682</v>
       </c>
       <c r="C22">
-        <v>10.9630879288095</v>
+        <v>7.863275497552075</v>
       </c>
       <c r="D22">
-        <v>6.135654080784667</v>
+        <v>5.867499744837983</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.41370493485157</v>
+        <v>22.70586532819987</v>
       </c>
       <c r="G22">
-        <v>3.653061488268295</v>
+        <v>2.078287696293223</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.787569150856882</v>
+        <v>13.9168580086535</v>
       </c>
       <c r="L22">
-        <v>10.98642351890149</v>
+        <v>7.722965275777842</v>
       </c>
       <c r="M22">
-        <v>15.17441496247104</v>
+        <v>12.29257561654776</v>
       </c>
       <c r="N22">
-        <v>20.188093985975</v>
+        <v>12.17232515075655</v>
       </c>
       <c r="O22">
-        <v>25.24424025320274</v>
+        <v>17.44994814298636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.94233827245193</v>
+        <v>17.56348672550162</v>
       </c>
       <c r="C23">
-        <v>10.96551747519228</v>
+        <v>7.869073089860433</v>
       </c>
       <c r="D23">
-        <v>6.116214715222499</v>
+        <v>5.813051003447497</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.4044660197495</v>
+        <v>22.50189444213927</v>
       </c>
       <c r="G23">
-        <v>3.653727389546428</v>
+        <v>2.080251874501811</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.712550537932781</v>
+        <v>13.68396936023284</v>
       </c>
       <c r="L23">
-        <v>10.98445474164196</v>
+        <v>7.663471807488838</v>
       </c>
       <c r="M23">
-        <v>15.15281410221203</v>
+        <v>12.13853645810495</v>
       </c>
       <c r="N23">
-        <v>20.21185441460043</v>
+        <v>12.26302255919875</v>
       </c>
       <c r="O23">
-        <v>25.25810508732794</v>
+        <v>17.38053268367937</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.55925377094883</v>
+        <v>16.22741604976638</v>
       </c>
       <c r="C24">
-        <v>10.97545645306254</v>
+        <v>7.892831731366283</v>
       </c>
       <c r="D24">
-        <v>6.041149061843375</v>
+        <v>5.601429676501863</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.38082635628668</v>
+        <v>21.75156930804691</v>
       </c>
       <c r="G24">
-        <v>3.656349314621687</v>
+        <v>2.087817030787771</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.425339883575379</v>
+        <v>12.76669985047734</v>
       </c>
       <c r="L24">
-        <v>10.97986363233396</v>
+        <v>7.441859587728161</v>
       </c>
       <c r="M24">
-        <v>15.07476629339062</v>
+        <v>11.54689028357616</v>
       </c>
       <c r="N24">
-        <v>20.30485029069323</v>
+        <v>12.60997103616784</v>
       </c>
       <c r="O24">
-        <v>25.31906417031005</v>
+        <v>17.14474428173533</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14260935267284</v>
+        <v>14.66700207931353</v>
       </c>
       <c r="C25">
-        <v>10.98776549947546</v>
+        <v>7.922247884951466</v>
       </c>
       <c r="D25">
-        <v>5.95723492638852</v>
+        <v>5.362224546137991</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.37967286590186</v>
+        <v>20.99110840907586</v>
       </c>
       <c r="G25">
-        <v>3.65939244110431</v>
+        <v>2.096269265283659</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.110658388451332</v>
+        <v>11.70179080313252</v>
       </c>
       <c r="L25">
-        <v>10.98107326017896</v>
+        <v>7.211412667794573</v>
       </c>
       <c r="M25">
-        <v>14.9988864709818</v>
+        <v>10.89382212319993</v>
       </c>
       <c r="N25">
-        <v>20.41162582496985</v>
+        <v>12.99257250051915</v>
       </c>
       <c r="O25">
-        <v>25.40283010705001</v>
+        <v>16.94536968692239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.43267210520349</v>
+        <v>13.37502057494195</v>
       </c>
       <c r="C2">
-        <v>7.947117729262421</v>
+        <v>9.280032772264326</v>
       </c>
       <c r="D2">
-        <v>5.177368999699424</v>
+        <v>9.154183698241978</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.47445525862856</v>
+        <v>28.06794098970702</v>
       </c>
       <c r="G2">
-        <v>2.102766074834244</v>
+        <v>31.89444925569796</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.016829694063413</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.918153322622716</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.12186969300332</v>
       </c>
       <c r="K2">
-        <v>10.85280780018861</v>
+        <v>16.71124947805395</v>
       </c>
       <c r="L2">
-        <v>7.049780184676403</v>
+        <v>8.996436392177664</v>
       </c>
       <c r="M2">
-        <v>10.40338463786105</v>
+        <v>12.33556779386967</v>
       </c>
       <c r="N2">
-        <v>13.28246892107611</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.84261050489461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.15389195443703</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.60874214569692</v>
+        <v>12.48283050543966</v>
       </c>
       <c r="C3">
-        <v>7.965955488604191</v>
+        <v>8.658526100971475</v>
       </c>
       <c r="D3">
-        <v>5.047051011902822</v>
+        <v>8.633580286629812</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.15177008446552</v>
+        <v>27.31615750511843</v>
       </c>
       <c r="G3">
-        <v>2.107350014878538</v>
+        <v>31.10712802272622</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.262308861766342</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.085540533335995</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.06091277845562</v>
       </c>
       <c r="K3">
-        <v>10.23726140948715</v>
+        <v>16.6475295543317</v>
       </c>
       <c r="L3">
-        <v>6.945582669581666</v>
+        <v>8.606638614840991</v>
       </c>
       <c r="M3">
-        <v>10.06700022483778</v>
+        <v>11.54795524699314</v>
       </c>
       <c r="N3">
-        <v>13.48450721670997</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.79870270477873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.30293676647667</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.07882173828449</v>
+        <v>11.8994188108907</v>
       </c>
       <c r="C4">
-        <v>7.978494685681705</v>
+        <v>8.258733600112517</v>
       </c>
       <c r="D4">
-        <v>4.964705311980989</v>
+        <v>8.299126751849101</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.96726584677525</v>
+        <v>26.8501907738547</v>
       </c>
       <c r="G4">
-        <v>2.110257075809998</v>
+        <v>30.62335269817946</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.418643958028844</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.192703333154916</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.02599183766906</v>
       </c>
       <c r="K4">
-        <v>9.83970390281474</v>
+        <v>16.61137856968004</v>
       </c>
       <c r="L4">
-        <v>6.884342048869711</v>
+        <v>8.357663325041232</v>
       </c>
       <c r="M4">
-        <v>9.859240346328862</v>
+        <v>11.03604136904298</v>
       </c>
       <c r="N4">
-        <v>13.61145224175176</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.78382843872563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.39560729715016</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85696579066461</v>
+        <v>11.65788645711329</v>
       </c>
       <c r="C5">
-        <v>7.983848382051292</v>
+        <v>8.099701780212282</v>
       </c>
       <c r="D5">
-        <v>4.930588748422927</v>
+        <v>8.161930634093336</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.89550939318809</v>
+        <v>26.65015905639535</v>
       </c>
       <c r="G5">
-        <v>2.111465436694159</v>
+        <v>30.41014259751887</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.484021264170333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.240321575306222</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.00950450538408</v>
       </c>
       <c r="K5">
-        <v>9.672812394945115</v>
+        <v>16.59069600461408</v>
       </c>
       <c r="L5">
-        <v>6.86008879262683</v>
+        <v>8.253691561390028</v>
       </c>
       <c r="M5">
-        <v>9.774395121623551</v>
+        <v>10.81938036603565</v>
       </c>
       <c r="N5">
-        <v>13.66393067486077</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.78071332193071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.43261023666203</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81977444841541</v>
+        <v>11.61060534028131</v>
       </c>
       <c r="C6">
-        <v>7.984752068844585</v>
+        <v>8.083382800794915</v>
       </c>
       <c r="D6">
-        <v>4.924890688320178</v>
+        <v>8.142291718303914</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.88380138555316</v>
+        <v>26.60557336726159</v>
       </c>
       <c r="G6">
-        <v>2.111667528942546</v>
+        <v>30.3549678325147</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.495254799246096</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.251936138742786</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.00328634045344</v>
       </c>
       <c r="K6">
-        <v>9.644806918666838</v>
+        <v>16.5791405309815</v>
       </c>
       <c r="L6">
-        <v>6.856104397362849</v>
+        <v>8.236093152569858</v>
       </c>
       <c r="M6">
-        <v>9.7602994975074</v>
+        <v>10.78183860810976</v>
       </c>
       <c r="N6">
-        <v>13.67269038177152</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.78037124886521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.43747578522905</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.07585343661802</v>
+        <v>11.87701913490947</v>
       </c>
       <c r="C7">
-        <v>7.97856590096827</v>
+        <v>8.284205576131095</v>
       </c>
       <c r="D7">
-        <v>4.964247436020699</v>
+        <v>8.306275958492721</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.96628422675076</v>
+        <v>26.81686668138732</v>
       </c>
       <c r="G7">
-        <v>2.11027327560417</v>
+        <v>30.56689986989489</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.420302317643978</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.202991722995706</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.01619173364954</v>
       </c>
       <c r="K7">
-        <v>9.837472845331249</v>
+        <v>16.58884608206519</v>
       </c>
       <c r="L7">
-        <v>6.884012097373411</v>
+        <v>8.35575280994826</v>
       </c>
       <c r="M7">
-        <v>9.858096657021511</v>
+        <v>11.03011546528371</v>
       </c>
       <c r="N7">
-        <v>13.61215693264348</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.78377462208864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.39261270818468</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.15363590351565</v>
+        <v>13.05153820185632</v>
       </c>
       <c r="C8">
-        <v>7.953410629746862</v>
+        <v>9.103068716300692</v>
       </c>
       <c r="D8">
-        <v>5.132933841680297</v>
+        <v>8.988856992400885</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.36037118999181</v>
+        <v>27.77061371684709</v>
       </c>
       <c r="G8">
-        <v>2.104327694594844</v>
+        <v>31.55448415581463</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.101305742803463</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.987385826022579</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.08781034172778</v>
       </c>
       <c r="K8">
-        <v>10.64466119152471</v>
+        <v>16.65947585306402</v>
       </c>
       <c r="L8">
-        <v>7.013293978087963</v>
+        <v>8.863440671876125</v>
       </c>
       <c r="M8">
-        <v>10.28772448683759</v>
+        <v>12.06614203810837</v>
       </c>
       <c r="N8">
-        <v>13.35154360574143</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.82490784023825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.20065853584863</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.20875054410559</v>
+        <v>15.10461161018094</v>
       </c>
       <c r="C9">
-        <v>7.911837325302644</v>
+        <v>10.52186058115265</v>
       </c>
       <c r="D9">
-        <v>5.44420654408899</v>
+        <v>10.19313969764099</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.24062536084538</v>
+        <v>29.65004146177702</v>
       </c>
       <c r="G9">
-        <v>2.09338107471497</v>
+        <v>33.57204384455099</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.602111783755805</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.582983359533016</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.26550046762978</v>
       </c>
       <c r="K9">
-        <v>12.07060524153501</v>
+        <v>16.86182459772466</v>
       </c>
       <c r="L9">
-        <v>7.287833497594478</v>
+        <v>9.78085316406084</v>
       </c>
       <c r="M9">
-        <v>11.11553513212493</v>
+        <v>13.87851824169119</v>
       </c>
       <c r="N9">
-        <v>12.86248481029959</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.00546513145163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.83858304060735</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.59934060378892</v>
+        <v>16.40775788032432</v>
       </c>
       <c r="C10">
-        <v>7.886082414715675</v>
+        <v>11.43521833380914</v>
       </c>
       <c r="D10">
-        <v>5.659757760151036</v>
+        <v>10.85977593674772</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.95144111910442</v>
+        <v>30.75687504031697</v>
       </c>
       <c r="G10">
-        <v>2.085741785558739</v>
+        <v>34.78851301084542</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.979103656428133</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.646407898118523</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.36254611185595</v>
       </c>
       <c r="K10">
-        <v>13.02159713714547</v>
+        <v>16.94766252748231</v>
       </c>
       <c r="L10">
-        <v>7.501363867440182</v>
+        <v>10.22083855432506</v>
       </c>
       <c r="M10">
-        <v>11.70877951826435</v>
+        <v>15.03619880995936</v>
       </c>
       <c r="N10">
-        <v>12.51519183013761</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.2042730867999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.56661470651394</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.19888302472858</v>
+        <v>16.68954652822675</v>
       </c>
       <c r="C11">
-        <v>7.875421687333022</v>
+        <v>11.40621380815926</v>
       </c>
       <c r="D11">
-        <v>5.754741315610072</v>
+        <v>9.905847675839729</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.28831015438956</v>
+        <v>29.28037173714336</v>
       </c>
       <c r="G11">
-        <v>2.082346743809656</v>
+        <v>33.31849878090763</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.843655753049664</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.721444786760007</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.0306469480952</v>
       </c>
       <c r="K11">
-        <v>13.43323053044498</v>
+        <v>16.36691504289843</v>
       </c>
       <c r="L11">
-        <v>7.60085590718185</v>
+        <v>8.886855711207883</v>
       </c>
       <c r="M11">
-        <v>11.97436367727059</v>
+        <v>15.21398854054213</v>
       </c>
       <c r="N11">
-        <v>12.35948418058034</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.31013375736912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.37723517806945</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.42121910434772</v>
+        <v>16.68482344071527</v>
       </c>
       <c r="C12">
-        <v>7.871538059612308</v>
+        <v>11.16267844814773</v>
       </c>
       <c r="D12">
-        <v>5.790251214946104</v>
+        <v>8.945805568430096</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.41777705957712</v>
+        <v>27.82635624568872</v>
       </c>
       <c r="G12">
-        <v>2.081072018494843</v>
+        <v>31.87121578631417</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.106217317431415</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.727135229840135</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.74013464141547</v>
       </c>
       <c r="K12">
-        <v>13.58609663584295</v>
+        <v>15.88961306303928</v>
       </c>
       <c r="L12">
-        <v>7.638851691490204</v>
+        <v>7.747914663993074</v>
       </c>
       <c r="M12">
-        <v>12.0742438564633</v>
+        <v>15.13190566140382</v>
       </c>
       <c r="N12">
-        <v>12.30082127301315</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.35251901622617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.29380992929502</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.37354309879749</v>
+        <v>16.43781927411273</v>
       </c>
       <c r="C13">
-        <v>7.872367620073494</v>
+        <v>10.7631650340633</v>
       </c>
       <c r="D13">
-        <v>5.782624151074257</v>
+        <v>7.907635009863721</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.38981011865449</v>
+        <v>26.23852783677794</v>
       </c>
       <c r="G13">
-        <v>2.081346078673483</v>
+        <v>30.2549397187135</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.447619050788697</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.685249115309273</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.44859618098561</v>
       </c>
       <c r="K13">
-        <v>13.55330791630945</v>
+        <v>15.4289183118263</v>
       </c>
       <c r="L13">
-        <v>7.63065465946441</v>
+        <v>6.711127212942385</v>
       </c>
       <c r="M13">
-        <v>12.05276466836761</v>
+        <v>14.83936739808583</v>
       </c>
       <c r="N13">
-        <v>12.31344247982348</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.34328713946597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.28018159099687</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.21726857894184</v>
+        <v>16.14771295243527</v>
       </c>
       <c r="C14">
-        <v>7.875099095538794</v>
+        <v>10.41383679109905</v>
       </c>
       <c r="D14">
-        <v>5.757672010190399</v>
+        <v>7.137208132766775</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.29892359576891</v>
+        <v>25.05393501620051</v>
       </c>
       <c r="G14">
-        <v>2.082241656531552</v>
+        <v>29.02601927376499</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.483794695027743</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.636040084764929</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.24250301397835</v>
       </c>
       <c r="K14">
-        <v>13.44586719552779</v>
+        <v>15.11077874126813</v>
       </c>
       <c r="L14">
-        <v>7.603975526839283</v>
+        <v>6.081163476260372</v>
       </c>
       <c r="M14">
-        <v>11.98259511281486</v>
+        <v>14.5350463378868</v>
       </c>
       <c r="N14">
-        <v>12.35465209338551</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.31357431214305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.30277039837891</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.12093578987574</v>
+        <v>16.01816495343742</v>
       </c>
       <c r="C15">
-        <v>7.876792225798901</v>
+        <v>10.3017244327849</v>
       </c>
       <c r="D15">
-        <v>5.742327956512566</v>
+        <v>6.933494212995845</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.24349942495739</v>
+        <v>24.72878172532296</v>
       </c>
       <c r="G15">
-        <v>2.0827916248556</v>
+        <v>28.67505535540102</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.723892892513075</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.615269869662013</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.18974721907039</v>
       </c>
       <c r="K15">
-        <v>13.37966487886088</v>
+        <v>15.03048060787421</v>
       </c>
       <c r="L15">
-        <v>7.587674965933894</v>
+        <v>5.941452926471431</v>
       </c>
       <c r="M15">
-        <v>11.93952224511375</v>
+        <v>14.41360156056555</v>
       </c>
       <c r="N15">
-        <v>12.37993242950479</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.29567595778192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.3207370633165</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.55949874674166</v>
+        <v>15.50819678940671</v>
       </c>
       <c r="C16">
-        <v>7.88680048691694</v>
+        <v>9.987821668495846</v>
       </c>
       <c r="D16">
-        <v>5.653487088889549</v>
+        <v>6.796082605629078</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.92969435471545</v>
+        <v>24.51272173677244</v>
       </c>
       <c r="G16">
-        <v>2.085965219653506</v>
+        <v>28.39522163723547</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.520411731779764</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.513761674644367</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.19970745242464</v>
       </c>
       <c r="K16">
-        <v>12.99427417258402</v>
+        <v>15.07310788279827</v>
       </c>
       <c r="L16">
-        <v>7.494907641259626</v>
+        <v>5.914547716172725</v>
       </c>
       <c r="M16">
-        <v>11.69133011735702</v>
+        <v>13.97588797983583</v>
       </c>
       <c r="N16">
-        <v>12.52541122224715</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.19767213212245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.43221090803289</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.20664984081008</v>
+        <v>15.26968523538617</v>
       </c>
       <c r="C17">
-        <v>7.893211605915468</v>
+        <v>9.93919472458815</v>
       </c>
       <c r="D17">
-        <v>5.598186945458597</v>
+        <v>7.11724525001882</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.7406173531144</v>
+        <v>24.98758425604379</v>
       </c>
       <c r="G17">
-        <v>2.087932207803859</v>
+        <v>28.84800496982538</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.782668294656218</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.556350896802603</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.31708525142815</v>
       </c>
       <c r="K17">
-        <v>12.75247881555084</v>
+        <v>15.27375946219064</v>
       </c>
       <c r="L17">
-        <v>7.438587959650156</v>
+        <v>6.209779305614711</v>
       </c>
       <c r="M17">
-        <v>11.53791821281026</v>
+        <v>13.80271816637057</v>
       </c>
       <c r="N17">
-        <v>12.6152221451141</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.141558281988</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.50599931648168</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.00058688406056</v>
+        <v>15.25943731451184</v>
       </c>
       <c r="C18">
-        <v>7.896998335936031</v>
+        <v>10.10152492445889</v>
       </c>
       <c r="D18">
-        <v>5.566091508480662</v>
+        <v>7.872193970370472</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.63313999632831</v>
+        <v>26.13461703049012</v>
       </c>
       <c r="G18">
-        <v>2.089071146572104</v>
+        <v>30.01681608382943</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.517562263487155</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.561451108472557</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.54672297080553</v>
       </c>
       <c r="K18">
-        <v>12.61142921143019</v>
+        <v>15.65106169984286</v>
       </c>
       <c r="L18">
-        <v>7.406417202998883</v>
+        <v>6.935495122987661</v>
       </c>
       <c r="M18">
-        <v>11.44928012279476</v>
+        <v>13.84744092025514</v>
       </c>
       <c r="N18">
-        <v>12.66709512123203</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.11073008620484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.56378496623395</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.93028112678472</v>
+        <v>15.4065973031684</v>
       </c>
       <c r="C19">
-        <v>7.898297453534287</v>
+        <v>10.46107505774355</v>
       </c>
       <c r="D19">
-        <v>5.555175572428872</v>
+        <v>8.928770392687369</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.59697020435324</v>
+        <v>27.68929052595132</v>
       </c>
       <c r="G19">
-        <v>2.089458091606113</v>
+        <v>31.58064559334116</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.993369176362796</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.543728188683635</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.83527058795739</v>
       </c>
       <c r="K19">
-        <v>12.56333289986252</v>
+        <v>16.11211099342931</v>
       </c>
       <c r="L19">
-        <v>7.395563584030556</v>
+        <v>8.067061135947977</v>
       </c>
       <c r="M19">
-        <v>11.41920259865587</v>
+        <v>14.06050954315662</v>
       </c>
       <c r="N19">
-        <v>12.68469634463912</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.10053820277581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.61192151558134</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.24453306898594</v>
+        <v>16.02949148560286</v>
       </c>
       <c r="C20">
-        <v>7.892518851013561</v>
+        <v>11.26361767708768</v>
       </c>
       <c r="D20">
-        <v>5.604103699687206</v>
+        <v>10.70400460807709</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.76061329280646</v>
+        <v>30.37448289641078</v>
       </c>
       <c r="G20">
-        <v>2.087722038489027</v>
+        <v>34.31191695617516</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.87740733033962</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.58909190022222</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.30590138308763</v>
       </c>
       <c r="K20">
-        <v>12.77842275769691</v>
+        <v>16.85434105960004</v>
       </c>
       <c r="L20">
-        <v>7.444560359580585</v>
+        <v>10.09803220685547</v>
       </c>
       <c r="M20">
-        <v>11.55429110469347</v>
+        <v>14.73180875006465</v>
       </c>
       <c r="N20">
-        <v>12.60563944577064</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.14738134318615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.62826603825732</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.26329724565971</v>
+        <v>17.03591137334492</v>
       </c>
       <c r="C21">
-        <v>7.874292619141013</v>
+        <v>12.00389366477192</v>
       </c>
       <c r="D21">
-        <v>5.765013620432619</v>
+        <v>11.41393450431072</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.32556788491785</v>
+        <v>31.57817994078765</v>
       </c>
       <c r="G21">
-        <v>2.081978312784212</v>
+        <v>35.62398324570412</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.186722344931389</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.796572664621205</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.45632192358615</v>
       </c>
       <c r="K21">
-        <v>13.47750676525658</v>
+        <v>17.04658872831614</v>
       </c>
       <c r="L21">
-        <v>7.611803285127911</v>
+        <v>10.70432803303424</v>
       </c>
       <c r="M21">
-        <v>12.0032249006589</v>
+        <v>15.63768409872162</v>
       </c>
       <c r="N21">
-        <v>12.34253990898577</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.32223869586446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.43630843929351</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.90176361706682</v>
+        <v>17.66566450026064</v>
       </c>
       <c r="C22">
-        <v>7.863275497552075</v>
+        <v>12.42031038267796</v>
       </c>
       <c r="D22">
-        <v>5.867499744837983</v>
+        <v>11.77980306842504</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.70586532819987</v>
+        <v>32.27358433712322</v>
       </c>
       <c r="G22">
-        <v>2.078287696293223</v>
+        <v>36.41819114135856</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.37629420472392</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.922964298055791</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.54727483702794</v>
       </c>
       <c r="K22">
-        <v>13.9168580086535</v>
+        <v>17.16791348179948</v>
       </c>
       <c r="L22">
-        <v>7.722965275777842</v>
+        <v>10.996900688989</v>
       </c>
       <c r="M22">
-        <v>12.29257561654776</v>
+        <v>16.18917752234078</v>
       </c>
       <c r="N22">
-        <v>12.17232515075655</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.44994814298636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.31055616521474</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.56348672550162</v>
+        <v>17.34846318519469</v>
       </c>
       <c r="C23">
-        <v>7.869073089860433</v>
+        <v>12.17627862803764</v>
       </c>
       <c r="D23">
-        <v>5.813051003447497</v>
+        <v>11.57794959660563</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.50189444213927</v>
+        <v>31.93379301447748</v>
       </c>
       <c r="G23">
-        <v>2.080251874501811</v>
+        <v>36.04866401865714</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.276222972823323</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.851269685071185</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.50908169853237</v>
       </c>
       <c r="K23">
-        <v>13.68396936023284</v>
+        <v>17.12777899472674</v>
       </c>
       <c r="L23">
-        <v>7.663471807488838</v>
+        <v>10.84208911725464</v>
       </c>
       <c r="M23">
-        <v>12.13853645810495</v>
+        <v>15.89970237564969</v>
       </c>
       <c r="N23">
-        <v>12.26302255919875</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.38053268367937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.38101045186153</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.22741604976638</v>
+        <v>16.06297996624425</v>
       </c>
       <c r="C24">
-        <v>7.892831731366283</v>
+        <v>11.25666953801764</v>
       </c>
       <c r="D24">
-        <v>5.601429676501863</v>
+        <v>10.79728495655547</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.75156930804691</v>
+        <v>30.58221909512067</v>
       </c>
       <c r="G24">
-        <v>2.087817030787771</v>
+        <v>34.55622898054818</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.888025276117587</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.582399041415057</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.35338098236505</v>
       </c>
       <c r="K24">
-        <v>12.76669985047734</v>
+        <v>16.9441965058821</v>
       </c>
       <c r="L24">
-        <v>7.441859587728161</v>
+        <v>10.23558327527648</v>
       </c>
       <c r="M24">
-        <v>11.54689028357616</v>
+        <v>14.75083996282746</v>
       </c>
       <c r="N24">
-        <v>12.60997103616784</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.14474428173533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.64357384933629</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.66700207931353</v>
+        <v>14.55032607767856</v>
       </c>
       <c r="C25">
-        <v>7.922247884951466</v>
+        <v>10.19440141581079</v>
       </c>
       <c r="D25">
-        <v>5.362224546137991</v>
+        <v>9.89420236068376</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.99110840907586</v>
+        <v>29.09653165373783</v>
       </c>
       <c r="G25">
-        <v>2.096269265283659</v>
+        <v>32.93904187683309</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.672539245781835</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.707123985160788</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.19839660189362</v>
       </c>
       <c r="K25">
-        <v>11.70179080313252</v>
+        <v>16.76506957534582</v>
       </c>
       <c r="L25">
-        <v>7.211412667794573</v>
+        <v>9.54065279917282</v>
       </c>
       <c r="M25">
-        <v>10.89382212319993</v>
+        <v>13.40747526737639</v>
       </c>
       <c r="N25">
-        <v>12.99257250051915</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.94536968692239</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.93010486487996</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.37502057494195</v>
+        <v>13.02054089416993</v>
       </c>
       <c r="C2">
-        <v>9.280032772264326</v>
+        <v>9.793388221461296</v>
       </c>
       <c r="D2">
-        <v>9.154183698241978</v>
+        <v>9.40878016347809</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.06794098970702</v>
+        <v>27.18667089604545</v>
       </c>
       <c r="G2">
-        <v>31.89444925569796</v>
+        <v>29.94332539708078</v>
       </c>
       <c r="H2">
-        <v>2.016829694063413</v>
+        <v>1.97137906321499</v>
       </c>
       <c r="I2">
-        <v>2.918153322622716</v>
+        <v>2.797285790098721</v>
       </c>
       <c r="J2">
-        <v>11.12186969300332</v>
+        <v>11.04763784241557</v>
       </c>
       <c r="K2">
-        <v>16.71124947805395</v>
+        <v>15.86382029229214</v>
       </c>
       <c r="L2">
-        <v>8.996436392177664</v>
+        <v>13.21981319035856</v>
       </c>
       <c r="M2">
-        <v>12.33556779386967</v>
+        <v>10.29647952102513</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.025381261675077</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.29799846259271</v>
       </c>
       <c r="P2">
-        <v>13.15389195443703</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.94902590516836</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.48283050543966</v>
+        <v>12.19285588487636</v>
       </c>
       <c r="C3">
-        <v>8.658526100971475</v>
+        <v>9.086665837099346</v>
       </c>
       <c r="D3">
-        <v>8.633580286629812</v>
+        <v>8.868897705382912</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.31615750511843</v>
+        <v>26.52064756535093</v>
       </c>
       <c r="G3">
-        <v>31.10712802272622</v>
+        <v>29.34367246238653</v>
       </c>
       <c r="H3">
-        <v>2.262308861766342</v>
+        <v>2.205881899309185</v>
       </c>
       <c r="I3">
-        <v>3.085540533335995</v>
+        <v>2.943430133920053</v>
       </c>
       <c r="J3">
-        <v>11.06091277845562</v>
+        <v>10.97318777126978</v>
       </c>
       <c r="K3">
-        <v>16.6475295543317</v>
+        <v>15.85632132699889</v>
       </c>
       <c r="L3">
-        <v>8.606638614840991</v>
+        <v>13.31652692593858</v>
       </c>
       <c r="M3">
-        <v>11.54795524699314</v>
+        <v>10.20174536660424</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.643443959788948</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.52525164573378</v>
       </c>
       <c r="P3">
-        <v>13.30293676647667</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.09393858017656</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.8994188108907</v>
+        <v>11.6515195570123</v>
       </c>
       <c r="C4">
-        <v>8.258733600112517</v>
+        <v>8.631133440748339</v>
       </c>
       <c r="D4">
-        <v>8.299126751849101</v>
+        <v>8.522342182536322</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.8501907738547</v>
+        <v>26.10726842856079</v>
       </c>
       <c r="G4">
-        <v>30.62335269817946</v>
+        <v>28.97905515682011</v>
       </c>
       <c r="H4">
-        <v>2.418643958028844</v>
+        <v>2.355319943239229</v>
       </c>
       <c r="I4">
-        <v>3.192703333154916</v>
+        <v>3.0373702416443</v>
       </c>
       <c r="J4">
-        <v>11.02599183766906</v>
+        <v>10.92763479566517</v>
       </c>
       <c r="K4">
-        <v>16.61137856968004</v>
+        <v>15.85343802648129</v>
       </c>
       <c r="L4">
-        <v>8.357663325041232</v>
+        <v>13.37507360141317</v>
       </c>
       <c r="M4">
-        <v>11.03604136904298</v>
+        <v>10.1617190196166</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.399647797729457</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.02296661341348</v>
       </c>
       <c r="P4">
-        <v>13.39560729715016</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.18419023939052</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65788645711329</v>
+        <v>11.41690824080972</v>
       </c>
       <c r="C5">
-        <v>8.099701780212282</v>
+        <v>8.448563462989741</v>
       </c>
       <c r="D5">
-        <v>8.161930634093336</v>
+        <v>8.380097278990633</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.65015905639535</v>
+        <v>25.92886051580444</v>
       </c>
       <c r="G5">
-        <v>30.41014259751887</v>
+        <v>28.81578670399689</v>
       </c>
       <c r="H5">
-        <v>2.484021264170333</v>
+        <v>2.417828807000192</v>
       </c>
       <c r="I5">
-        <v>3.240321575306222</v>
+        <v>3.08003337861419</v>
       </c>
       <c r="J5">
-        <v>11.00950450538408</v>
+        <v>10.9062878829188</v>
       </c>
       <c r="K5">
-        <v>16.59069600461408</v>
+        <v>15.84638122406262</v>
       </c>
       <c r="L5">
-        <v>8.253691561390028</v>
+        <v>13.39308069199426</v>
       </c>
       <c r="M5">
-        <v>10.81938036603565</v>
+        <v>10.14616289539164</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.297888461061637</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.81039511533433</v>
       </c>
       <c r="P5">
-        <v>13.43261023666203</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.22043414403266</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61060534028131</v>
+        <v>11.37053990255563</v>
       </c>
       <c r="C6">
-        <v>8.083382800794915</v>
+        <v>8.42833209300977</v>
       </c>
       <c r="D6">
-        <v>8.142291718303914</v>
+        <v>8.359534214893186</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.60557336726159</v>
+        <v>25.88817987586622</v>
       </c>
       <c r="G6">
-        <v>30.3549678325147</v>
+        <v>28.76958910651679</v>
       </c>
       <c r="H6">
-        <v>2.495254799246096</v>
+        <v>2.42856370524843</v>
       </c>
       <c r="I6">
-        <v>3.251936138742786</v>
+        <v>3.091457997661033</v>
       </c>
       <c r="J6">
-        <v>11.00328634045344</v>
+        <v>10.89928991620938</v>
       </c>
       <c r="K6">
-        <v>16.5791405309815</v>
+        <v>15.83754460073024</v>
       </c>
       <c r="L6">
-        <v>8.236093152569858</v>
+        <v>13.3891732278073</v>
       </c>
       <c r="M6">
-        <v>10.78183860810976</v>
+        <v>10.13914272824384</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.280675467405528</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.77357909349272</v>
       </c>
       <c r="P6">
-        <v>13.43747578522905</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.22541964947094</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.87701913490947</v>
+        <v>11.62570025909886</v>
       </c>
       <c r="C7">
-        <v>8.284205576131095</v>
+        <v>8.645016199130593</v>
       </c>
       <c r="D7">
-        <v>8.306275958492721</v>
+        <v>8.534882820068852</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.81686668138732</v>
+        <v>26.05584496903151</v>
       </c>
       <c r="G7">
-        <v>30.56689986989489</v>
+        <v>28.99725509534595</v>
       </c>
       <c r="H7">
-        <v>2.420302317643978</v>
+        <v>2.357448474101601</v>
       </c>
       <c r="I7">
-        <v>3.202991722995706</v>
+        <v>3.049891271603153</v>
       </c>
       <c r="J7">
-        <v>11.01619173364954</v>
+        <v>10.87467122725632</v>
       </c>
       <c r="K7">
-        <v>16.58884608206519</v>
+        <v>15.82351952638518</v>
       </c>
       <c r="L7">
-        <v>8.35575280994826</v>
+        <v>13.34910270298868</v>
       </c>
       <c r="M7">
-        <v>11.03011546528371</v>
+        <v>10.14255934905331</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.397426648034646</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.01085098898906</v>
       </c>
       <c r="P7">
-        <v>13.39261270818468</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.18054476618446</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05153820185632</v>
+        <v>12.70640759468959</v>
       </c>
       <c r="C8">
-        <v>9.103068716300692</v>
+        <v>9.553085007236998</v>
       </c>
       <c r="D8">
-        <v>8.988856992400885</v>
+        <v>9.2542293181752</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.77061371684709</v>
+        <v>26.85819651157547</v>
       </c>
       <c r="G8">
-        <v>31.55448415581463</v>
+        <v>29.90469245620337</v>
       </c>
       <c r="H8">
-        <v>2.101305742803463</v>
+        <v>2.053772448217374</v>
       </c>
       <c r="I8">
-        <v>2.987385826022579</v>
+        <v>2.863323176096822</v>
       </c>
       <c r="J8">
-        <v>11.08781034172778</v>
+        <v>10.86867987030781</v>
       </c>
       <c r="K8">
-        <v>16.65947585306402</v>
+        <v>15.80448790072395</v>
       </c>
       <c r="L8">
-        <v>8.863440671876125</v>
+        <v>13.20682024627207</v>
       </c>
       <c r="M8">
-        <v>12.06614203810837</v>
+        <v>10.2204895997871</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.893948427187667</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.01420835093917</v>
       </c>
       <c r="P8">
-        <v>13.20065853584863</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.99137790640554</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.10461161018094</v>
+        <v>14.60928034170677</v>
       </c>
       <c r="C9">
-        <v>10.52186058115265</v>
+        <v>11.16154955226675</v>
       </c>
       <c r="D9">
-        <v>10.19313969764099</v>
+        <v>10.50725804134798</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.65004146177702</v>
+        <v>28.51175252002219</v>
       </c>
       <c r="G9">
-        <v>33.57204384455099</v>
+        <v>31.52990101754845</v>
       </c>
       <c r="H9">
-        <v>1.602111783755805</v>
+        <v>1.622191636863544</v>
       </c>
       <c r="I9">
-        <v>2.582983359533016</v>
+        <v>2.509577532395104</v>
       </c>
       <c r="J9">
-        <v>11.26550046762978</v>
+        <v>11.03043531150162</v>
       </c>
       <c r="K9">
-        <v>16.86182459772466</v>
+        <v>15.85099679586805</v>
       </c>
       <c r="L9">
-        <v>9.78085316406084</v>
+        <v>12.97924359344307</v>
       </c>
       <c r="M9">
-        <v>13.87851824169119</v>
+        <v>10.56170325045932</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.793409863443802</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.78928148665086</v>
       </c>
       <c r="P9">
-        <v>12.83858304060735</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.63920197005242</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.40775788032432</v>
+        <v>15.79999638648424</v>
       </c>
       <c r="C10">
-        <v>11.43521833380914</v>
+        <v>12.13998640113262</v>
       </c>
       <c r="D10">
-        <v>10.85977593674772</v>
+        <v>11.2304149538953</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.75687504031697</v>
+        <v>29.37081987401117</v>
       </c>
       <c r="G10">
-        <v>34.78851301084542</v>
+        <v>32.88754894989793</v>
       </c>
       <c r="H10">
-        <v>1.979103656428133</v>
+        <v>1.978422864745707</v>
       </c>
       <c r="I10">
-        <v>2.646407898118523</v>
+        <v>2.69007441566177</v>
       </c>
       <c r="J10">
-        <v>11.36254611185595</v>
+        <v>10.87453486339494</v>
       </c>
       <c r="K10">
-        <v>16.94766252748231</v>
+        <v>15.77996580331345</v>
       </c>
       <c r="L10">
-        <v>10.22083855432506</v>
+        <v>12.72514397304596</v>
       </c>
       <c r="M10">
-        <v>15.03619880995936</v>
+        <v>10.79761707715315</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.22041888134781</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.89422937088749</v>
       </c>
       <c r="P10">
-        <v>12.56661470651394</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.37520304580466</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.68954652822675</v>
+        <v>16.05061994119364</v>
       </c>
       <c r="C11">
-        <v>11.40621380815926</v>
+        <v>11.98121842646468</v>
       </c>
       <c r="D11">
-        <v>9.905847675839729</v>
+        <v>10.32068910828321</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.28037173714336</v>
+        <v>27.72831081176121</v>
       </c>
       <c r="G11">
-        <v>33.31849878090763</v>
+        <v>32.30256659137414</v>
       </c>
       <c r="H11">
-        <v>2.843655753049664</v>
+        <v>2.837178326088437</v>
       </c>
       <c r="I11">
-        <v>2.721444786760007</v>
+        <v>2.75393876362171</v>
       </c>
       <c r="J11">
-        <v>11.0306469480952</v>
+        <v>10.11898468162549</v>
       </c>
       <c r="K11">
-        <v>16.36691504289843</v>
+        <v>15.15225910489141</v>
       </c>
       <c r="L11">
-        <v>8.886855711207883</v>
+        <v>12.19429582353303</v>
       </c>
       <c r="M11">
-        <v>15.21398854054213</v>
+        <v>10.41798698292193</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.880501419269368</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.0103853798817</v>
       </c>
       <c r="P11">
-        <v>12.37723517806945</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.2286346553901</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.68482344071527</v>
+        <v>16.0535907508122</v>
       </c>
       <c r="C12">
-        <v>11.16267844814773</v>
+        <v>11.64424465471821</v>
       </c>
       <c r="D12">
-        <v>8.945805568430096</v>
+        <v>9.369284314183631</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.82635624568872</v>
+        <v>26.25034449468842</v>
       </c>
       <c r="G12">
-        <v>31.87121578631417</v>
+        <v>31.32942370418569</v>
       </c>
       <c r="H12">
-        <v>4.106217317431415</v>
+        <v>4.101036293618179</v>
       </c>
       <c r="I12">
-        <v>2.727135229840135</v>
+        <v>2.75683873767719</v>
       </c>
       <c r="J12">
-        <v>10.74013464141547</v>
+        <v>9.694324444621948</v>
       </c>
       <c r="K12">
-        <v>15.88961306303928</v>
+        <v>14.70162011125966</v>
       </c>
       <c r="L12">
-        <v>7.747914663993074</v>
+        <v>11.85537140240374</v>
       </c>
       <c r="M12">
-        <v>15.13190566140382</v>
+        <v>10.08781693755988</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.739632621852577</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.90407851188166</v>
       </c>
       <c r="P12">
-        <v>12.29380992929502</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.18323795591531</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.43781927411273</v>
+        <v>15.85386954957731</v>
       </c>
       <c r="C13">
-        <v>10.7631650340633</v>
+        <v>11.19109161342072</v>
       </c>
       <c r="D13">
-        <v>7.907635009863721</v>
+        <v>8.301917032833339</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.23852783677794</v>
+        <v>24.78715681104955</v>
       </c>
       <c r="G13">
-        <v>30.2549397187135</v>
+        <v>29.73696941032093</v>
       </c>
       <c r="H13">
-        <v>5.447619050788697</v>
+        <v>5.449528285520826</v>
       </c>
       <c r="I13">
-        <v>2.685249115309273</v>
+        <v>2.721044634955524</v>
       </c>
       <c r="J13">
-        <v>10.44859618098561</v>
+        <v>9.530184788027952</v>
       </c>
       <c r="K13">
-        <v>15.4289183118263</v>
+        <v>14.34459808144327</v>
       </c>
       <c r="L13">
-        <v>6.711127212942385</v>
+        <v>11.62041805281223</v>
       </c>
       <c r="M13">
-        <v>14.83936739808583</v>
+        <v>9.76914716508176</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.705312543616452</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.62624275803675</v>
       </c>
       <c r="P13">
-        <v>12.28018159099687</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.20130514591843</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.14771295243527</v>
+        <v>15.61525079235994</v>
       </c>
       <c r="C14">
-        <v>10.41383679109905</v>
+        <v>10.82010955271131</v>
       </c>
       <c r="D14">
-        <v>7.137208132766775</v>
+        <v>7.494252568788304</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.05393501620051</v>
+        <v>23.75384867959841</v>
       </c>
       <c r="G14">
-        <v>29.02601927376499</v>
+        <v>28.33375583970757</v>
       </c>
       <c r="H14">
-        <v>6.483794695027743</v>
+        <v>6.48422393203089</v>
       </c>
       <c r="I14">
-        <v>2.636040084764929</v>
+        <v>2.680385724149361</v>
       </c>
       <c r="J14">
-        <v>10.24250301397835</v>
+        <v>9.512999265592956</v>
       </c>
       <c r="K14">
-        <v>15.11077874126813</v>
+        <v>14.13011876617158</v>
       </c>
       <c r="L14">
-        <v>6.081163476260372</v>
+        <v>11.49411393776464</v>
       </c>
       <c r="M14">
-        <v>14.5350463378868</v>
+        <v>9.548837188672314</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.079605281728437</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.34949136397582</v>
       </c>
       <c r="P14">
-        <v>12.30277039837891</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.24023448388772</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.01816495343742</v>
+        <v>15.50648402990132</v>
       </c>
       <c r="C15">
-        <v>10.3017244327849</v>
+        <v>10.70946278441428</v>
       </c>
       <c r="D15">
-        <v>6.933494212995845</v>
+        <v>7.274582254472266</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.72878172532296</v>
+        <v>23.49258097160697</v>
       </c>
       <c r="G15">
-        <v>28.67505535540102</v>
+        <v>27.86142241358625</v>
       </c>
       <c r="H15">
-        <v>6.723892892513075</v>
+        <v>6.723721601301023</v>
       </c>
       <c r="I15">
-        <v>2.615269869662013</v>
+        <v>2.664127654336522</v>
       </c>
       <c r="J15">
-        <v>10.18974721907039</v>
+        <v>9.548658311863162</v>
       </c>
       <c r="K15">
-        <v>15.03048060787421</v>
+        <v>14.08859419334267</v>
       </c>
       <c r="L15">
-        <v>5.941452926471431</v>
+        <v>11.47634813975931</v>
       </c>
       <c r="M15">
-        <v>14.41360156056555</v>
+        <v>9.492559431563983</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.942092207591741</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.24230355447837</v>
       </c>
       <c r="P15">
-        <v>12.3207370633165</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.26007900822795</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.50819678940671</v>
+        <v>15.0665171815903</v>
       </c>
       <c r="C16">
-        <v>9.987821668495846</v>
+        <v>10.44942539808719</v>
       </c>
       <c r="D16">
-        <v>6.796082605629078</v>
+        <v>7.081019538931783</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.51272173677244</v>
+        <v>23.49954000741942</v>
       </c>
       <c r="G16">
-        <v>28.39522163723547</v>
+        <v>26.94431392434548</v>
       </c>
       <c r="H16">
-        <v>6.520411731779764</v>
+        <v>6.517253418788798</v>
       </c>
       <c r="I16">
-        <v>2.513761674644367</v>
+        <v>2.58091091097973</v>
       </c>
       <c r="J16">
-        <v>10.19970745242464</v>
+        <v>9.922008795888722</v>
       </c>
       <c r="K16">
-        <v>15.07310788279827</v>
+        <v>14.24033423878788</v>
       </c>
       <c r="L16">
-        <v>5.914547716172725</v>
+        <v>11.63672129797394</v>
       </c>
       <c r="M16">
-        <v>13.97588797983583</v>
+        <v>9.511949539027627</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.92499527844601</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.8679262645029</v>
       </c>
       <c r="P16">
-        <v>12.43221090803289</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.35343619062061</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.26968523538617</v>
+        <v>14.84871146286837</v>
       </c>
       <c r="C17">
-        <v>9.93919472458815</v>
+        <v>10.44237955707865</v>
       </c>
       <c r="D17">
-        <v>7.11724525001882</v>
+        <v>7.384883629785643</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.98758425604379</v>
+        <v>24.04295512441921</v>
       </c>
       <c r="G17">
-        <v>28.84800496982538</v>
+        <v>27.09738953167995</v>
       </c>
       <c r="H17">
-        <v>5.782668294656218</v>
+        <v>5.77733768851076</v>
       </c>
       <c r="I17">
-        <v>2.556350896802603</v>
+        <v>2.538072811466649</v>
       </c>
       <c r="J17">
-        <v>10.31708525142815</v>
+        <v>10.18614832668762</v>
       </c>
       <c r="K17">
-        <v>15.27375946219064</v>
+        <v>14.46176860968922</v>
       </c>
       <c r="L17">
-        <v>6.209779305614711</v>
+        <v>11.82820094061437</v>
       </c>
       <c r="M17">
-        <v>13.80271816637057</v>
+        <v>9.632737440827832</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.224358570134001</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.72118886210571</v>
       </c>
       <c r="P17">
-        <v>12.50599931648168</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.40918801423448</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.25943731451184</v>
+        <v>14.82487693715777</v>
       </c>
       <c r="C18">
-        <v>10.10152492445889</v>
+        <v>10.65820535782328</v>
       </c>
       <c r="D18">
-        <v>7.872193970370472</v>
+        <v>8.144112675169872</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.13461703049012</v>
+        <v>25.16961842375186</v>
       </c>
       <c r="G18">
-        <v>30.01681608382943</v>
+        <v>28.06767549710458</v>
       </c>
       <c r="H18">
-        <v>4.517562263487155</v>
+        <v>4.510299274517764</v>
       </c>
       <c r="I18">
-        <v>2.561451108472557</v>
+        <v>2.521523507350243</v>
       </c>
       <c r="J18">
-        <v>10.54672297080553</v>
+        <v>10.45970023253325</v>
       </c>
       <c r="K18">
-        <v>15.65106169984286</v>
+        <v>14.80285657000926</v>
       </c>
       <c r="L18">
-        <v>6.935495122987661</v>
+        <v>12.09591311495014</v>
       </c>
       <c r="M18">
-        <v>13.84744092025514</v>
+        <v>9.875642345401312</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.950083972798411</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.77339294303711</v>
       </c>
       <c r="P18">
-        <v>12.56378496623395</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.44434986137049</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.4065973031684</v>
+        <v>14.93601321913159</v>
       </c>
       <c r="C19">
-        <v>10.46107505774355</v>
+        <v>11.08329793516228</v>
       </c>
       <c r="D19">
-        <v>8.928770392687369</v>
+        <v>9.217451722151271</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.68929052595132</v>
+        <v>26.65080834516121</v>
       </c>
       <c r="G19">
-        <v>31.58064559334116</v>
+        <v>29.47130218470353</v>
       </c>
       <c r="H19">
-        <v>2.993369176362796</v>
+        <v>2.984083369059285</v>
       </c>
       <c r="I19">
-        <v>2.543728188683635</v>
+        <v>2.543237582863597</v>
       </c>
       <c r="J19">
-        <v>10.83527058795739</v>
+        <v>10.73672370264296</v>
       </c>
       <c r="K19">
-        <v>16.11211099342931</v>
+        <v>15.19360118243908</v>
       </c>
       <c r="L19">
-        <v>8.067061135947977</v>
+        <v>12.39025540089366</v>
       </c>
       <c r="M19">
-        <v>14.06050954315662</v>
+        <v>10.17889521569786</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.079045570764103</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.98267251764665</v>
       </c>
       <c r="P19">
-        <v>12.61192151558134</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.4667493258317</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.02949148560286</v>
+        <v>15.46394355207824</v>
       </c>
       <c r="C20">
-        <v>11.26361767708768</v>
+        <v>11.98224859909739</v>
       </c>
       <c r="D20">
-        <v>10.70400460807709</v>
+        <v>11.04340923032816</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.37448289641078</v>
+        <v>29.11701836018519</v>
       </c>
       <c r="G20">
-        <v>34.31191695617516</v>
+        <v>32.13985373405436</v>
       </c>
       <c r="H20">
-        <v>1.87740733033962</v>
+        <v>1.883868346631562</v>
       </c>
       <c r="I20">
-        <v>2.58909190022222</v>
+        <v>2.647334304728135</v>
       </c>
       <c r="J20">
-        <v>11.30590138308763</v>
+        <v>11.03162614925428</v>
       </c>
       <c r="K20">
-        <v>16.85434105960004</v>
+        <v>15.76425908767683</v>
       </c>
       <c r="L20">
-        <v>10.09803220685547</v>
+        <v>12.76716184231791</v>
       </c>
       <c r="M20">
-        <v>14.73180875006465</v>
+        <v>10.70410007530762</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.10202942645403</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.62134454609729</v>
       </c>
       <c r="P20">
-        <v>12.62826603825732</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.44115181267772</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.03591137334492</v>
+        <v>16.31854111820788</v>
       </c>
       <c r="C21">
-        <v>12.00389366477192</v>
+        <v>12.62583076694326</v>
       </c>
       <c r="D21">
-        <v>11.41393450431072</v>
+        <v>11.88222736364097</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.57817994078765</v>
+        <v>29.79767805579302</v>
       </c>
       <c r="G21">
-        <v>35.62398324570412</v>
+        <v>34.78470373249064</v>
       </c>
       <c r="H21">
-        <v>2.186722344931389</v>
+        <v>2.168928780632541</v>
       </c>
       <c r="I21">
-        <v>2.796572664621205</v>
+        <v>2.818144644502738</v>
       </c>
       <c r="J21">
-        <v>11.45632192358615</v>
+        <v>10.2513597006382</v>
       </c>
       <c r="K21">
-        <v>17.04658872831614</v>
+        <v>15.65596790877085</v>
       </c>
       <c r="L21">
-        <v>10.70432803303424</v>
+        <v>12.53810850156904</v>
       </c>
       <c r="M21">
-        <v>15.63768409872162</v>
+        <v>10.85512896307152</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.69366138171567</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.39660656402962</v>
       </c>
       <c r="P21">
-        <v>12.43630843929351</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.23297185824064</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.66566450026064</v>
+        <v>16.85146965930098</v>
       </c>
       <c r="C22">
-        <v>12.42031038267796</v>
+        <v>12.96791579917752</v>
       </c>
       <c r="D22">
-        <v>11.77980306842504</v>
+        <v>12.33398316059596</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.27358433712322</v>
+        <v>30.13873296691321</v>
       </c>
       <c r="G22">
-        <v>36.41819114135856</v>
+        <v>36.55397918910251</v>
       </c>
       <c r="H22">
-        <v>2.37629420472392</v>
+        <v>2.343024143506347</v>
       </c>
       <c r="I22">
-        <v>2.922964298055791</v>
+        <v>2.919821132787667</v>
       </c>
       <c r="J22">
-        <v>11.54727483702794</v>
+        <v>9.724808014893888</v>
       </c>
       <c r="K22">
-        <v>17.16791348179948</v>
+        <v>15.56988893750788</v>
       </c>
       <c r="L22">
-        <v>10.996900688989</v>
+        <v>12.37935001652143</v>
       </c>
       <c r="M22">
-        <v>16.18917752234078</v>
+        <v>10.94899458634306</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.97718803608719</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.86071411502488</v>
       </c>
       <c r="P22">
-        <v>12.31055616521474</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.09801100228463</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.34846318519469</v>
+        <v>16.59331071395664</v>
       </c>
       <c r="C23">
-        <v>12.17627862803764</v>
+        <v>12.78472701784919</v>
       </c>
       <c r="D23">
-        <v>11.57794959660563</v>
+        <v>12.07526036672253</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.93379301447748</v>
+        <v>30.03043800676407</v>
       </c>
       <c r="G23">
-        <v>36.04866401865714</v>
+        <v>35.48739790446148</v>
       </c>
       <c r="H23">
-        <v>2.276222972823323</v>
+        <v>2.252059453357043</v>
       </c>
       <c r="I23">
-        <v>2.851269685071185</v>
+        <v>2.860802100268722</v>
       </c>
       <c r="J23">
-        <v>11.50908169853237</v>
+        <v>10.10276026594771</v>
       </c>
       <c r="K23">
-        <v>17.12777899472674</v>
+        <v>15.66061611339581</v>
       </c>
       <c r="L23">
-        <v>10.84208911725464</v>
+        <v>12.49422738936454</v>
       </c>
       <c r="M23">
-        <v>15.89970237564969</v>
+        <v>10.93601522302453</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.82768319729264</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.62973070355975</v>
       </c>
       <c r="P23">
-        <v>12.38101045186153</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.17358263195733</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.06297996624425</v>
+        <v>15.49395925184232</v>
       </c>
       <c r="C24">
-        <v>11.25666953801764</v>
+        <v>11.98239700197439</v>
       </c>
       <c r="D24">
-        <v>10.79728495655547</v>
+        <v>11.13779433883813</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.58221909512067</v>
+        <v>29.31891731891707</v>
       </c>
       <c r="G24">
-        <v>34.55622898054818</v>
+        <v>32.35714332993003</v>
       </c>
       <c r="H24">
-        <v>1.888025276117587</v>
+        <v>1.894326235542973</v>
       </c>
       <c r="I24">
-        <v>2.582399041415057</v>
+        <v>2.638161056693253</v>
       </c>
       <c r="J24">
-        <v>11.35338098236505</v>
+        <v>11.08238459816859</v>
       </c>
       <c r="K24">
-        <v>16.9441965058821</v>
+        <v>15.84522650194614</v>
       </c>
       <c r="L24">
-        <v>10.23558327527648</v>
+        <v>12.8284907459354</v>
       </c>
       <c r="M24">
-        <v>14.75083996282746</v>
+        <v>10.76593547229277</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.23943895904656</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.6406487415223</v>
       </c>
       <c r="P24">
-        <v>12.64357384933629</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.45124654096637</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.55032607767856</v>
+        <v>14.09967305026542</v>
       </c>
       <c r="C25">
-        <v>10.19440141581079</v>
+        <v>10.79909116346634</v>
       </c>
       <c r="D25">
-        <v>9.89420236068376</v>
+        <v>10.18826723231346</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.09653165373783</v>
+        <v>28.04584006240859</v>
       </c>
       <c r="G25">
-        <v>32.93904187683309</v>
+        <v>30.90367997982305</v>
       </c>
       <c r="H25">
-        <v>1.672539245781835</v>
+        <v>1.643983900240416</v>
       </c>
       <c r="I25">
-        <v>2.707123985160788</v>
+        <v>2.622597518631293</v>
       </c>
       <c r="J25">
-        <v>11.19839660189362</v>
+        <v>11.02997893713361</v>
       </c>
       <c r="K25">
-        <v>16.76506957534582</v>
+        <v>15.81263008789813</v>
       </c>
       <c r="L25">
-        <v>9.54065279917282</v>
+        <v>13.02324505368499</v>
       </c>
       <c r="M25">
-        <v>13.40747526737639</v>
+        <v>10.43618546851244</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.558291960668273</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.33577322321928</v>
       </c>
       <c r="P25">
-        <v>12.93010486487996</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.73109024504113</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
